--- a/public/preprocessing/@ustadtengkuzul.xlsx
+++ b/public/preprocessing/@ustadtengkuzul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15351</v>
+        <v>29748</v>
       </c>
       <c r="C2" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kepada dan polri semoga bisa ditindak lanjuti terimakasih</t>
+          <t>dlm kasus menghadirkan terdakwa yg pincang itu apakah pihak kejaksaan dan pengadilan serta penguasa rezim ma</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kepada', 'dan', 'polri', 'semoga', 'bisa', 'ditindak', 'lanjuti', 'terimakasih']</t>
+          <t>['dlm', 'kasus', 'menghadirkan', 'terdakwa', 'yg', 'pincang', 'itu', 'apakah', 'pihak', 'kejaksaan', 'dan', 'pengadilan', 'serta', 'penguasa', 'rezim', 'ma']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['dalam', 'kasus', 'menghadirkan', 'terdakwa', 'yang', 'pincang', 'itu', 'apakah', 'pihak', 'kejaksaan', 'dan', 'pengadilan', 'serta', 'penguasa', 'rezim', 'sama']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['polri', 'semoga', 'ditindak', 'lanjuti', 'terimakasih']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['polri', 'moga', 'tindak', 'lanjut', 'terimakasih']</t>
+          <t>['menghadirkan', 'terdakwa', 'pincang', 'kejaksaan', 'pengadilan', 'penguasa', 'rezim']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['hadir', 'dakwa', 'pincang', 'jaksa', 'adil', 'kuasa', 'rezim']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15352</v>
+        <v>29749</v>
       </c>
       <c r="C3" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>presiden perintahkan kapolri panglima tni satgas covid tindak tegas pelanggar</t>
+          <t>lah melindungi maling besar lagi pula dakwaan hrs tdk ada porn fugitive anda sedang waras kah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['presiden', 'perintahkan', 'kapolri', 'panglima', 'tni', 'satgas', 'covid', 'tindak', 'tegas', 'pelanggar']</t>
+          <t>['lah', 'melindungi', 'maling', 'besar', 'lagi', 'pula', 'dakwaan', 'hrs', 'tdk', 'ada', 'porn', 'fugitive', 'anda', 'sedang', 'waras', 'kah']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['lah', 'melindungi', 'maling', 'besar', 'lagi', 'pula', 'dakwaan', 'harus', 'tidak', 'ada', 'porno', 'fugitive', 'anda', 'sedang', 'waras', 'kah']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['presiden', 'perintahkan', 'kapolri', 'panglima', 'tni', 'satgas', 'covid', 'tindak', 'pelanggar']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['presiden', 'perintah', 'kapolri', 'panglima', 'tni', 'satgas', 'covid', 'tindak', 'langgar']</t>
+          <t>['melindungi', 'maling', 'dakwaan', 'porno', 'fugitive', 'waras', 'kah']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['lindung', 'maling', 'dakwa', 'porno', 'fugitive', 'waras', 'kah']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15353</v>
+        <v>29750</v>
       </c>
       <c r="C4" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">adulawas siapa saja yg lalukan kerumunan terencana akan ditangkap tapi jika melakukan kerumunan tdk terencana </t>
+          <t>jendralpolisi kasus djoko tjandra irjen napoleon dan irjen prasetijo serta jaksa pinanti bisa dihadirkan di peng</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['adulawas', 'siapa', 'saja', 'yg', 'lalukan', 'kerumunan', 'terencana', 'akan', 'ditangkap', 'tapi', 'jika', 'melakukan', 'kerumunan', 'tdk', 'terencana']</t>
+          <t>['jendralpolisi', 'kasus', 'djoko', 'tjandra', 'irjen', 'napoleon', 'dan', 'irjen', 'prasetijo', 'serta', 'jaksa', 'pinanti', 'bisa', 'dihadirkan', 'di', 'peng']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['jendralpolisi', 'kasus', 'djoko', 'tjandra', 'irjen', 'napoleon', 'dan', 'irjen', 'prasetijo', 'serta', 'jaksa', 'pinanti', 'bisa', 'dihadirkan', 'di', 'peng']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['adulawas', 'lalukan', 'kerumunan', 'terencana', 'ditangkap', 'kerumunan', 'terencana']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['adulawas', 'lalu', 'kerumun', 'rencana', 'tangkap', 'kerumun', 'rencana']</t>
+          <t>['jendralpolisi', 'djoko', 'tjandra', 'irjen', 'napoleon', 'irjen', 'prasetijo', 'jaksa', 'pinanti', 'dihadirkan', 'peng']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['jendralpolisi', 'djoko', 'tjandra', 'irjen', 'napoleon', 'irjen', 'prasetijo', 'jaksa', 'panti', 'hadir', 'peng']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15354</v>
+        <v>29751</v>
       </c>
       <c r="C5" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">kerumunan tidak sama dengan kerumunan yg satu direncanakan yg satu spontanitas jadi kerumunannya satu terencana </t>
+          <t>habib riziq dan gus nur tdk dihadirkan saat di pengadilan tapi irjen napoleon bisa dihadirkan kalau alasan covid</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['kerumunan', 'tidak', 'sama', 'dengan', 'kerumunan', 'yg', 'satu', 'direncanakan', 'yg', 'satu', 'spontanitas', 'jadi', 'kerumunannya', 'satu', 'terencana']</t>
+          <t>['habib', 'riziq', 'dan', 'gus', 'nur', 'tdk', 'dihadirkan', 'saat', 'di', 'pengadilan', 'tapi', 'irjen', 'napoleon', 'bisa', 'dihadirkan', 'kalau', 'alasan', 'covid']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>['habib', 'rizieq', 'dan', 'gus', 'nur', 'tidak', 'dihadirkan', 'saat', 'di', 'pengadilan', 'tapi', 'irjen', 'napoleon', 'bisa', 'dihadirkan', 'kalau', 'alasan', 'covid']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['kerumunan', 'kerumunan', 'direncanakan', 'spontanitas', 'kerumunannya', 'terencana']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['kerumun', 'kerumun', 'rencana', 'spontanitas', 'kerumun', 'rencana']</t>
+          <t>['habib', 'rizieq', 'gus', 'nur', 'dihadirkan', 'pengadilan', 'irjen', 'napoleon', 'dihadirkan', 'alasan', 'covid']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['habib', 'rizieq', 'gus', 'nur', 'hadir', 'adil', 'irjen', 'napoleon', 'hadir', 'alas', 'covid']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15355</v>
+        <v>29752</v>
       </c>
       <c r="C6" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>betapa cintanya masyarakat kepada nya</t>
+          <t>masalah ruu hip agama musuh pancasila salam pancasila ketuhanan berkebudayaan baca quran langgam jawa di istan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['betapa', 'cintanya', 'masyarakat', 'kepada', 'nya']</t>
+          <t>['masalah', 'ruu', 'hip', 'agama', 'musuh', 'pancasila', 'salam', 'pancasila', 'ketuhanan', 'berkebudayaan', 'baca', 'quran', 'langgam', 'jawa', 'di', 'istan']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['masalah', 'rancangan, undang, undang', 'hip', 'agama', 'musuh', 'pancasila', 'salam', 'pancasila', 'ketuhanan', 'berkebudayaan', 'baca', 'alquran', 'langgam', 'jawa', 'di', 'istan']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['betapa', 'cintanya', 'masyarakat']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['betapa', 'cinta', 'masyarakat']</t>
+          <t>['rancangan, undang, undang', 'hip', 'agama', 'musuh', 'pancasila', 'salam', 'pancasila', 'ketuhanan', 'berkebudayaan', 'baca', 'alquran', 'langgam', 'jawa', 'istan']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['rancang undang undang', 'hip', 'agama', 'musuh', 'pancasila', 'salam', 'pancasila', 'tuhan', 'budaya', 'baca', 'alquran', 'langgam', 'jawa', 'istan']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15356</v>
+        <v>29753</v>
       </c>
       <c r="C7" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>satu orang ditangkap tanpa ampun karena kerumunan satu orang lagi menyebabkan kerumunan tapi semua seolah olah</t>
+          <t>nah suuzhon apa nya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['satu', 'orang', 'ditangkap', 'tanpa', 'ampun', 'karena', 'kerumunan', 'satu', 'orang', 'lagi', 'menyebabkan', 'kerumunan', 'tapi', 'semua', 'seolah', 'olah']</t>
+          <t>['nah', 'suuzhon', 'apa', 'nya']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['nah', 'suuzhon', 'apa', 'nya']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['orang', 'ditangkap', 'ampun', 'kerumunan', 'orang', 'menyebabkan', 'kerumunan', 'olah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['orang', 'tangkap', 'ampun', 'kerumun', 'orang', 'sebab', 'kerumun', 'olah']</t>
+          <t>['suuzhon']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['suuzhon']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15357</v>
+        <v>29754</v>
       </c>
       <c r="C8" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>suka mereka saja lah</t>
+          <t>sambil senyum jokowi ingatkan amien rais jangan buat kegaduhan baru asal jangan mpr na</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['suka', 'mereka', 'saja', 'lah']</t>
+          <t>['sambil', 'senyum', 'jokowi', 'ingatkan', 'amien', 'rais', 'jangan', 'buat', 'kegaduhan', 'baru', 'asal', 'jangan', 'mpr', 'na']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sambil', 'senyum', 'jokowi', 'ingatkan', 'amien', 'rais', 'jangan', 'buat', 'kegaduhan', 'baru', 'asal', 'jangan', 'majelis, permusyawaratan, rakyat', 'na']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['suka']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['suka']</t>
+          <t>['senyum', 'jokowi', 'ingatkan', 'amien', 'rais', 'kegaduhan', 'majelis, permusyawaratan, rakyat', 'na']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['senyum', 'jokowi', 'ingat', 'amien', 'rais', 'gaduh', 'majelis musyawarat rakyat', 'na']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15358</v>
+        <v>29755</v>
       </c>
       <c r="C9" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>dokter laki paki dipakai hanya karena darurat org tdk ada dokter perempuan kalau memandikan jenazab</t>
+          <t>kepada yth dgn hormat kami ingin ingatkan dan mohonkan khusus daerah sumatera utara dan aceh umumnya wila</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['dokter', 'laki', 'paki', 'dipakai', 'hanya', 'karena', 'darurat', 'org', 'tdk', 'ada', 'dokter', 'perempuan', 'kalau', 'memandikan', 'jenazab']</t>
+          <t>['kepada', 'yth', 'dgn', 'hormat', 'kami', 'ingin', 'ingatkan', 'dan', 'mohonkan', 'khusus', 'daerah', 'sumatera', 'utara', 'dan', 'aceh', 'umumnya', 'wila']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['kepada', 'yang, terhormat', 'dengan', 'hormat', 'kami', 'ingin', 'ingatkan', 'dan', 'mohonkan', 'khusus', 'daerah', 'sumatra', 'utara', 'dan', 'aceh', 'umumnya', 'wila']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['dokter', 'laki', 'paki', 'dipakai', 'darurat', 'org', 'dokter', 'perempuan', 'memandikan', 'jenazab']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['dokter', 'laki', 'paki', 'pakai', 'darurat', 'org', 'dokter', 'perempuan', 'mandi', 'jenazab']</t>
+          <t>['yang, terhormat', 'hormat', 'ingatkan', 'mohonkan', 'khusus', 'daerah', 'sumatra', 'utara', 'aceh', 'wila']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['yang hormat', 'hormat', 'ingat', 'mohon', 'khusus', 'daerah', 'sumatra', 'utara', 'aceh', 'wila']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15359</v>
+        <v>29756</v>
       </c>
       <c r="C10" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ada masanya satu hari nanti</t>
+          <t xml:space="preserve"> beli genset mudah tapi beli minyak solarnya pakai jerigen dilarang mau pakai apa peraturan ruwet</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['ada', 'masanya', 'satu', 'hari', 'nanti']</t>
+          <t>['beli', 'genset', 'mudah', 'tapi', 'beli', 'minyak', 'solarnya', 'pakai', 'jerigen', 'dilarang', 'mau', 'pakai', 'apa', 'peraturan', 'ruwet']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['beli', 'genset', 'mudah', 'tapi', 'beli', 'minyak', 'solarnya', 'pakai', 'jerigen', 'dilarang', 'mau', 'pakai', 'apa', 'peraturan', 'ruwet']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['masanya']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['masa']</t>
+          <t>['beli', 'genset', 'mudah', 'beli', 'minyak', 'solarnya', 'pakai', 'jerigen', 'dilarang', 'pakai', 'peraturan', 'ruwet']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['beli', 'genset', 'mudah', 'beli', 'minyak', 'solar', 'pakai', 'jerigen', 'larang', 'pakai', 'atur', 'ruwet']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15360</v>
+        <v>29757</v>
       </c>
       <c r="C11" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>sekarang ini ada kelompok yg setiap saat selalu menyerang kepentingan umat islam jika umat islam dirugikan kem</t>
+          <t>sepanjang jalan ring road dan pasar  tanjung sari medan padam gimana sih</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['sekarang', 'ini', 'ada', 'kelompok', 'yg', 'setiap', 'saat', 'selalu', 'menyerang', 'kepentingan', 'umat', 'islam', 'jika', 'umat', 'islam', 'dirugikan', 'kem']</t>
+          <t>['sepanjang', 'jalan', 'ring', 'road', 'dan', 'pasar', 'tanjung', 'sari', 'medan', 'padam', 'gimana', 'sih']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['sepanjang', 'jalan', 'ring', 'road', 'dan', 'pasar', 'tanjung', 'sari', 'medan', 'padam', 'bagaimana', 'sih']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['kelompok', 'menyerang', 'kepentingan', 'umat', 'islam', 'umat', 'islam', 'dirugikan', 'kem']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['kelompok', 'serang', 'penting', 'umat', 'islam', 'umat', 'islam', 'rugi', 'kem']</t>
+          <t>['jalan', 'ring', 'road', 'pasar', 'tanjung', 'sari', 'medan', 'padam']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['jalan', 'ring', 'road', 'pasar', 'tanjung', 'sari', 'medan', 'padam']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15361</v>
+        <v>29758</v>
       </c>
       <c r="C12" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kamu bukan muslkm tdk usah campuri urusan agam islam kami juga tdk urus agama mu paham</t>
+          <t>lha katanya pelanggan adalah raja kok lu sewot lu merasa kacung ya gue bayar tdk pernah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['kamu', 'bukan', 'muslkm', 'tdk', 'usah', 'campuri', 'urusan', 'agam', 'islam', 'kami', 'juga', 'tdk', 'urus', 'agama', 'mu', 'paham']</t>
+          <t>['lha', 'katanya', 'pelanggan', 'adalah', 'raja', 'kok', 'lu', 'sewot', 'lu', 'merasa', 'kacung', 'ya', 'gue', 'bayar', 'tdk', 'pernah']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['lah', 'katanya', 'pelanggan', 'adalah', 'raja', 'kok', 'kamu', 'sewot', 'kamu', 'merasa', 'kacung', 'ya', 'gue', 'bayar', 'tidak', 'pernah']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['muslkm', 'campuri', 'urusan', 'agam', 'islam', 'urus', 'agama', 'mu', 'paham']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['muslkm', 'campur', 'urus', 'agam', 'islam', 'urus', 'agama', 'mu', 'paham']</t>
+          <t>['pelanggan', 'raja', 'sewot', 'kacung', 'gue', 'bayar']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['langgan', 'raja', 'sewot', 'kacung', 'gue', 'bayar']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15362</v>
+        <v>29759</v>
       </c>
       <c r="C13" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>polisi sudah menyidik apa polisi kadrun kejaksaan sufah menerima berkas  apa kejaksaan kad</t>
+          <t>kepada yth kenapa listrik mati tanpa pemberitahuan di wilayah ring road dan pasar  tanjung sari medan be</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['polisi', 'sudah', 'menyidik', 'apa', 'polisi', 'kadrun', 'kejaksaan', 'sufah', 'menerima', 'berkas', 'apa', 'kejaksaan', 'kad']</t>
+          <t>['kepada', 'yth', 'kenapa', 'listrik', 'mati', 'tanpa', 'pemberitahuan', 'di', 'wilayah', 'ring', 'road', 'dan', 'pasar', 'tanjung', 'sari', 'medan', 'be']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
+          <t>['kepada', 'yang, terhormat', 'kenapa', 'listrik', 'mati', 'tanpa', 'pemberitahuan', 'di', 'wilayah', 'ring', 'road', 'dan', 'pasar', 'tanjung', 'sari', 'medan', 'be']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['polisi', 'menyidik', 'polisi', 'kadrun', 'kejaksaan', 'sufah', 'menerima', 'berkas', 'kejaksaan', 'kad']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['polisi', 'sidik', 'polisi', 'kadrun', 'jaksa', 'sufah', 'terima', 'berkas', 'jaksa', 'kad']</t>
+          <t>['yang, terhormat', 'listrik', 'mati', 'pemberitahuan', 'wilayah', 'ring', 'road', 'pasar', 'tanjung', 'sari', 'medan', 'be']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['yang hormat', 'listrik', 'mati', 'pemberitahuan', 'wilayah', 'ring', 'road', 'pasar', 'tanjung', 'sari', 'medan', 'be']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15363</v>
+        <v>29760</v>
       </c>
       <c r="C14" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>yang wafat di siantar itu bkn pasien covid korban covid tdk dimandikan pihak keluarga sdh bersedia menyedi</t>
+          <t>petani kita disengsarakan saat mau tanam bibit langka dan mahal saat mau garap lahan pemilik traktor naikkan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['yang', 'wafat', 'di', 'siantar', 'itu', 'bkn', 'pasien', 'covid', 'korban', 'covid', 'tdk', 'dimandikan', 'pihak', 'keluarga', 'sdh', 'bersedia', 'menyedi']</t>
+          <t>['petani', 'kita', 'disengsarakan', 'saat', 'mau', 'tanam', 'bibit', 'langka', 'dan', 'mahal', 'saat', 'mau', 'garap', 'lahan', 'pemilik', 'traktor', 'naikkan']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['petani', 'kita', 'disengsarakan', 'saat', 'mau', 'tanam', 'bibit', 'langka', 'dan', 'mahal', 'saat', 'mau', 'garap', 'lahan', 'pemilik', 'traktor', 'naikan']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['wafat', 'siantar', 'bkn', 'pasien', 'covid', 'korban', 'covid', 'dimandikan', 'keluarga', 'bersedia', 'menyedi']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['wafat', 'siantar', 'bkn', 'pasien', 'covid', 'korban', 'covid', 'mandi', 'keluarga', 'sedia', 'menyedi']</t>
+          <t>['petani', 'disengsarakan', 'tanam', 'bibit', 'langka', 'mahal', 'garap', 'lahan', 'pemilik', 'traktor', 'naikan']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['tani', 'sengsara', 'tanam', 'bibit', 'langka', 'mahal', 'garap', 'lahan', 'milik', 'traktor', 'naik']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15364</v>
+        <v>29761</v>
       </c>
       <c r="C15" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>eko kuntadhi beberkan kondisi rs djasmen saragih sumut bagian forensik hanya perawat gilanya mereka jadi tersa</t>
+          <t>mundhori sedang jadi imam sholat shubuh musholla al iman temanggung dibacok pakai arit isteri beliau menghalang</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['eko', 'kuntadhi', 'beberkan', 'kondisi', 'rs', 'djasmen', 'saragih', 'sumut', 'bagian', 'forensik', 'hanya', 'perawat', 'gilanya', 'mereka', 'jadi', 'tersa']</t>
+          <t>['mundhori', 'sedang', 'jadi', 'imam', 'sholat', 'shubuh', 'musholla', 'al', 'iman', 'temanggung', 'dibacok', 'pakai', 'arit', 'isteri', 'beliau', 'menghalang']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['mundhori', 'sedang', 'jadi', 'imam', 'salat', 'shubuh', 'musala', 'al', 'iman', 'temanggung', 'dibacok', 'pakai', 'arit', 'isteri', 'beliau', 'menghalang']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['eko', 'kuntadhi', 'beberkan', 'kondisi', 'rs', 'djasmen', 'saragih', 'sumut', 'forensik', 'perawat', 'gilanya', 'tersa']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['eko', 'kuntadhi', 'kan', 'kondisi', 'rs', 'djasmen', 'saragih', 'sumut', 'forensik', 'awat', 'gila', 'tersa']</t>
+          <t>['mundhori', 'imam', 'salat', 'shubuh', 'musala', 'al', 'iman', 'temanggung', 'dibacok', 'pakai', 'arit', 'isteri', 'beliau', 'menghalang']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['mundhori', 'imam', 'salat', 'shubuh', 'musala', 'al', 'iman', 'tanggung', 'bacok', 'pakai', 'arit', 'isteri', 'beliau', 'halang']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15365</v>
+        <v>29762</v>
       </c>
       <c r="C16" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngeri mendengar kabar tentang oknum polisi akhir akhir ini ada yg jual senjata ke pemberontak ada yg pesta sabu </t>
+          <t>rt orangbaik tolong bantu retweet kisah hidup mak lulu yaaa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['ngeri', 'mendengar', 'kabar', 'tentang', 'oknum', 'polisi', 'akhir', 'akhir', 'ini', 'ada', 'yg', 'jual', 'senjata', 'ke', 'pemberontak', 'ada', 'yg', 'pesta', 'sabu']</t>
+          <t>['rt', 'orangbaik', 'tolong', 'bantu', 'retweet', 'kisah', 'hidup', 'mak', 'lulu', 'yaaa']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'orangbaik', 'tolong', 'bantu', 'retweet', 'kisah', 'hidup', 'mak', 'lulu', 'ya']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['ngeri', 'mendengar', 'kabar', 'oknum', 'polisi', 'jual', 'senjata', 'pemberontak', 'pesta', 'sabu']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['ngeri', 'dengar', 'kabar', 'oknum', 'polisi', 'jual', 'senjata', 'berontak', 'pesta', 'sabu']</t>
+          <t>['orangbaik', 'tolong', 'bantu', 'retweet', 'kisah', 'hidup', 'mak', 'lulu']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['orangbaik', 'tolong', 'bantu', 'retweet', 'kisah', 'hidup', 'mak', 'lulu']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15366</v>
+        <v>29763</v>
       </c>
       <c r="C17" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>telah wafat seorang lagi shahabat dalam dakwah haji jamaluddin surabaya syuro indonesia dlm jamaah tabligh sem</t>
+          <t>selama ini justru pancasila belum diamalkan secara benar dan baik baru slogan slogan saja ketuha</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['telah', 'wafat', 'seorang', 'lagi', 'shahabat', 'dalam', 'dakwah', 'haji', 'jamaluddin', 'surabaya', 'syuro', 'indonesia', 'dlm', 'jamaah', 'tabligh', 'sem']</t>
+          <t>['selama', 'ini', 'justru', 'pancasila', 'belum', 'diamalkan', 'secara', 'benar', 'dan', 'baik', 'baru', 'slogan', 'slogan', 'saja', 'ketuha']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['selama', 'ini', 'justru', 'pancasila', 'belum', 'diamalkan', 'secara', 'benar', 'dan', 'baik', 'baru', 'slogan', 'slogan', 'saja', 'ketuha']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['wafat', 'shahabat', 'dakwah', 'haji', 'jamaluddin', 'surabaya', 'syuro', 'indonesia', 'dlm', 'jamaah', 'tabligh', 'sem']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['wafat', 'shahabat', 'dakwah', 'haji', 'jamaluddin', 'surabaya', 'syuro', 'indonesia', 'dlm', 'jamaah', 'tabligh', 'sem']</t>
+          <t>['pancasila', 'diamalkan', 'slogan', 'slogan', 'ketuha']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['pancasila', 'amal', 'slogan', 'slogan', 'ketuha']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15367</v>
+        <v>29764</v>
       </c>
       <c r="C18" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>alhamdulillah ada kebun ada kerja dapat gaji bulanan dakwah tetap jalan setiap hari banyak keahli</t>
+          <t>ini penutup kepala ala rusia bukan berarti kalau dipakai terus prokomunis saya tetap cinta islam dan pancasila</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'ada', 'kebun', 'ada', 'kerja', 'dapat', 'gaji', 'bulanan', 'dakwah', 'tetap', 'jalan', 'setiap', 'hari', 'banyak', 'keahli']</t>
+          <t>['ini', 'penutup', 'kepala', 'ala', 'rusia', 'bukan', 'berarti', 'kalau', 'dipakai', 'terus', 'prokomunis', 'saya', 'tetap', 'cinta', 'islam', 'dan', 'pancasila']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['ini', 'penutup', 'kepala', 'ala', 'rusia', 'bukan', 'berarti', 'kalau', 'dipakai', 'terus', 'prokomunis', 'saya', 'tetap', 'cinta', 'islam', 'dan', 'pancasila']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'kebun', 'kerja', 'gaji', 'bulanan', 'dakwah', 'jalan', 'keahli']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'kebun', 'kerja', 'gaji', 'bulan', 'dakwah', 'jalan', 'ahli']</t>
+          <t>['penutup', 'kepala', 'ala', 'rusia', 'dipakai', 'prokomunis', 'cinta', 'islam', 'pancasila']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['tutup', 'kepala', 'ala', 'rusia', 'pakai', 'prokomunis', 'cinta', 'islam', 'pancasila']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15368</v>
+        <v>29765</v>
       </c>
       <c r="C19" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>sm ayam pramugarimemang lezatlah</t>
+          <t>pembela kezaliman membabi buta ya</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['sm', 'ayam', 'pramugarimemang', 'lezatlah']</t>
+          <t>['pembela', 'kezaliman', 'membabi', 'buta', 'ya']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pembela', 'kezaliman', 'membabi', 'buta', 'ya']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['sm', 'ayam', 'pramugarimemang', 'lezatlah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['sm', 'ayam', 'pramugarimemang', 'lezat']</t>
+          <t>['pembela', 'kezaliman', 'membabi', 'buta']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['bela', 'zalim', 'babi', 'buta']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15369</v>
+        <v>29766</v>
       </c>
       <c r="C20" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>solusi ganti</t>
+          <t>tdk tanggung tanggung jaksa akan dakwa habib rizieq shihab dgn pasal sekaligus ya allah berikan kesempatan hamb</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['solusi', 'ganti']</t>
+          <t>['tdk', 'tanggung', 'tanggung', 'jaksa', 'akan', 'dakwa', 'habib', 'rizieq', 'shihab', 'dgn', 'pasal', 'sekaligus', 'ya', 'allah', 'berikan', 'kesempatan', 'hamb']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tidak', 'tanggung', 'tanggung', 'jaksa', 'akan', 'dakwa', 'habib', 'rizieq', 'shihab', 'dengan', 'pasal', 'sekaligus', 'ya', 'allah', 'berikan', 'kesempatan', 'hamb']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['solusi', 'ganti']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['solusi', 'ganti']</t>
+          <t>['tanggung', 'tanggung', 'jaksa', 'dakwa', 'habib', 'rizieq', 'shihab', 'pasal', 'allah', 'kesempatan', 'hamb']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['tanggung', 'tanggung', 'jaksa', 'dakwa', 'habib', 'rizieq', 'shihab', 'pasal', 'allah', 'sempat', 'hamb']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15370</v>
+        <v>29767</v>
       </c>
       <c r="C21" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">paling tidak berkeadilan pada semua aspek hukum tidak ada anak emas anak tiri begitu kalau china dan </t>
+          <t xml:space="preserve">bangsa yahudi adalah bangsa yg pernah dikutuk allah jadi babi dan monyet keturunannya sampai sekarang masih saja </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['paling', 'tidak', 'berkeadilan', 'pada', 'semua', 'aspek', 'hukum', 'tidak', 'ada', 'anak', 'emas', 'anak', 'tiri', 'begitu', 'kalau', 'china', 'dan']</t>
+          <t>['bangsa', 'yahudi', 'adalah', 'bangsa', 'yg', 'pernah', 'dikutuk', 'allah', 'jadi', 'babi', 'dan', 'monyet', 'keturunannya', 'sampai', 'sekarang', 'masih', 'saja']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['bangsa', 'yahudi', 'adalah', 'bangsa', 'yang', 'pernah', 'dikutuk', 'allah', 'jadi', 'babi', 'dan', 'monyet', 'keturunannya', 'sampai', 'sekarang', 'masih', 'saja']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['berkeadilan', 'aspek', 'hukum', 'anak', 'emas', 'anak', 'tiri', 'china']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['adil', 'aspek', 'hukum', 'anak', 'emas', 'anak', 'tiri', 'china']</t>
+          <t>['bangsa', 'yahudi', 'bangsa', 'dikutuk', 'allah', 'babi', 'monyet', 'keturunannya']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['bangsa', 'yahudi', 'bangsa', 'kutuk', 'allah', 'babi', 'monyet', 'turun']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15371</v>
+        <v>29768</v>
       </c>
       <c r="C22" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>sudah tahun merdeka saya pikir semestinya hukum di negeri ini sudah masak sudah bisa diandalkan dan memuaskan</t>
+          <t>banyak sekali buzzers yang membully ulama tapi sekalipun mereka belum pernah ramai ramai membully koruptor tanya kenapa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['sudah', 'tahun', 'merdeka', 'saya', 'pikir', 'semestinya', 'hukum', 'di', 'negeri', 'ini', 'sudah', 'masak', 'sudah', 'bisa', 'diandalkan', 'dan', 'memuaskan']</t>
+          <t>['banyak', 'sekali', 'buzzers', 'yang', 'membully', 'ulama', 'tapi', 'sekalipun', 'mereka', 'belum', 'pernah', 'ramai', 'ramai', 'membully', 'koruptor', 'tanya', 'kenapa']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['banyak', 'sekali', 'buzzers', 'yang', 'membully', 'ulama', 'tapi', 'sekalipun', 'mereka', 'belum', 'pernah', 'ramai', 'ramai', 'membully', 'koruptor', 'tanya', 'kenapa']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['merdeka', 'pikir', 'semestinya', 'hukum', 'negeri', 'masak', 'diandalkan', 'memuaskan']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['merdeka', 'pikir', 'mesti', 'hukum', 'negeri', 'masak', 'andal', 'muas']</t>
+          <t>['buzzers', 'membully', 'ulama', 'ramai', 'ramai', 'membully', 'koruptor']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['buzzers', 'membully', 'ulama', 'ramai', 'ramai', 'membully', 'koruptor']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15372</v>
+        <v>29769</v>
       </c>
       <c r="C23" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>surat suara di situ saya cuma nanya masa nanya dilaporin mimpi dilaporin peramal dilaporin elu</t>
+          <t>nyantri di jalan gajah tdk ada pesantren di sana saya nyantri di makkah dul saya baca tentang cad</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['surat', 'suara', 'di', 'situ', 'saya', 'cuma', 'nanya', 'masa', 'nanya', 'dilaporin', 'mimpi', 'dilaporin', 'peramal', 'dilaporin', 'elu']</t>
+          <t>['nyantri', 'di', 'jalan', 'gajah', 'tdk', 'ada', 'pesantren', 'di', 'sana', 'saya', 'nyantri', 'di', 'makkah', 'dul', 'saya', 'baca', 'tentang', 'cad']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['nyantri', 'di', 'jalan', 'gajah', 'tidak', 'ada', 'pesantren', 'di', 'sana', 'saya', 'nyantri', 'di', 'makkah', 'dul', 'saya', 'baca', 'tentang', 'cad']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['surat', 'suara', 'situ', 'nanya', 'nanya', 'dilaporin', 'mimpi', 'dilaporin', 'peramal', 'dilaporin', 'elu']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['surat', 'suara', 'situ', 'nanya', 'nanya', 'dilaporin', 'mimpi', 'dilaporin', 'amal', 'dilaporin', 'elu']</t>
+          <t>['nyantri', 'jalan', 'gajah', 'pesantren', 'nyantri', 'makkah', 'dul', 'baca', 'cad']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['nyantri', 'jalan', 'gajah', 'pesantren', 'nyantri', 'makkah', 'dul', 'baca', 'cad']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15373</v>
+        <v>29770</v>
       </c>
       <c r="C24" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>para pembully kebenaran pada ngumpet ke mana ya tidak ada yg bersuara atas perbedaan prilaku hukum pada diri abu</t>
+          <t>amrozi dkk saat mengebom pakai celana jeans dul tentara amerika yg menghancurkan baghdad dan libya</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['para', 'pembully', 'kebenaran', 'pada', 'ngumpet', 'ke', 'mana', 'ya', 'tidak', 'ada', 'yg', 'bersuara', 'atas', 'perbedaan', 'prilaku', 'hukum', 'pada', 'diri', 'abu']</t>
+          <t>['amrozi', 'dkk', 'saat', 'mengebom', 'pakai', 'celana', 'jeans', 'dul', 'tentara', 'amerika', 'yg', 'menghancurkan', 'baghdad', 'dan', 'libya']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['amrozi', 'dan, kawan, kawan', 'saat', 'mengebom', 'pakai', 'celana', 'jeans', 'dul', 'tentara', 'amerika', 'yang', 'menghancurkan', 'baghdad', 'dan', 'libya']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['pembully', 'kebenaran', 'ngumpet', 'bersuara', 'perbedaan', 'prilaku', 'hukum', 'abu']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['pembully', 'benar', 'ngumpet', 'suara', 'beda', 'prilaku', 'hukum', 'abu']</t>
+          <t>['amrozi', 'dan, kawan, kawan', 'mengebom', 'pakai', 'celana', 'jeans', 'dul', 'tentara', 'amerika', 'menghancurkan', 'baghdad', 'libya']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['amrozi', 'dan kawan kawan', 'bom', 'pakai', 'celana', 'jeans', 'dul', 'tentara', 'amerika', 'hancur', 'baghdad', 'libya']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15374</v>
+        <v>29771</v>
       </c>
       <c r="C25" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>timbul pertanyaan apa sih kesaktiannya abu janda sampai penegak hukum lemah lembut banget pada dia beda dengan</t>
+          <t>rujukan mu seword hehehehe pantasnya pemikirannya bumpet hehehe</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['timbul', 'pertanyaan', 'apa', 'sih', 'kesaktiannya', 'abu', 'janda', 'sampai', 'penegak', 'hukum', 'lemah', 'lembut', 'banget', 'pada', 'dia', 'beda', 'dengan']</t>
+          <t>['rujukan', 'mu', 'seword', 'hehehehe', 'pantasnya', 'pemikirannya', 'bumpet', 'hehehe']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rujukan', 'mu', 'seword', 'hehe', 'pantasnya', 'pemikirannya', 'bumpet', 'hehe']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['timbul', 'kesaktiannya', 'abu', 'janda', 'penegak', 'hukum', 'lemah', 'lembut', 'banget', 'beda']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['timbul', 'sakti', 'abu', 'janda', 'tegak', 'hukum', 'lemah', 'lembut', 'banget', 'beda']</t>
+          <t>['rujukan', 'mu', 'seword', 'pantasnya', 'pemikirannya', 'bumpet']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['rujuk', 'mu', 'seword', 'pantas', 'pikir', 'bumpet']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15375</v>
+        <v>29772</v>
       </c>
       <c r="C26" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>tersangka uu ite minta maaf tak ditahan abu jandaustadz maaher diungkit kapolriabu ja</t>
+          <t>pemikiran bejat ya begini</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['tersangka', 'uu', 'ite', 'minta', 'maaf', 'tak', 'ditahan', 'abu', 'jandaustadz', 'maaher', 'diungkit', 'kapolriabu', 'ja']</t>
+          <t>['pemikiran', 'bejat', 'ya', 'begini']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['pemikiran', 'bejat', 'ya', 'begini']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['tersangka', 'uu', 'ite', 'maaf', 'ditahan', 'abu', 'jandaustadz', 'maaher', 'diungkit', 'kapolriabu', 'ja']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['sangka', 'uu', 'ite', 'maaf', 'tahan', 'abu', 'jandaustadz', 'maaher', 'ungkit', 'kapolriabu', 'ja']</t>
+          <t>['pemikiran', 'bejat']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['pikir', 'bejat']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15376</v>
+        <v>29773</v>
       </c>
       <c r="C27" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>saya pernah jadi anggota kpps nggak ada diancam ancam tuh ente fitnah saja ah di usu</t>
+          <t>anda sehat apakah jika ada org kristen mengebom gereja terus ajaran kristen dilarang apakah kalau</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['saya', 'pernah', 'jadi', 'anggota', 'kpps', 'nggak', 'ada', 'diancam', 'ancam', 'tuh', 'ente', 'fitnah', 'saja', 'ah', 'di', 'usu']</t>
+          <t>['anda', 'sehat', 'apakah', 'jika', 'ada', 'org', 'kristen', 'mengebom', 'gereja', 'terus', 'ajaran', 'kristen', 'dilarang', 'apakah', 'kalau']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['anda', 'sehat', 'apakah', 'jika', 'ada', 'orang', 'kristen', 'mengebom', 'gereja', 'terus', 'ajaran', 'kristen', 'dilarang', 'apakah', 'kalau']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['anggota', 'kpps', 'nggak', 'diancam', 'ancam', 'ente', 'fitnah', 'ah', 'usu']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['anggota', 'kpps', 'nggak', 'ancam', 'ancam', 'ente', 'fitnah', 'ah', 'usu']</t>
+          <t>['sehat', 'orang', 'kristen', 'mengebom', 'gereja', 'ajaran', 'kristen', 'dilarang']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['sehat', 'orang', 'kristen', 'bom', 'gereja', 'ajar', 'kristen', 'larang']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15377</v>
+        <v>29774</v>
       </c>
       <c r="C28" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>irjen pol napoleon mengatakan dirinya tidak punya kuasa menghapuskan nama djoko tjandra dari daftar cekal yg berha</t>
+          <t xml:space="preserve">beberapa tokoh keblinger itu selalu menyerang cadar sorban jenggot celana cingkrang dll yg jelas jelas ada </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['irjen', 'pol', 'napoleon', 'mengatakan', 'dirinya', 'tidak', 'punya', 'kuasa', 'menghapuskan', 'nama', 'djoko', 'tjandra', 'dari', 'daftar', 'cekal', 'yg', 'berha']</t>
+          <t>['beberapa', 'tokoh', 'keblinger', 'itu', 'selalu', 'menyerang', 'cadar', 'sorban', 'jenggot', 'celana', 'cingkrang', 'dll', 'yg', 'jelas', 'jelas', 'ada']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['beberapa', 'tokoh', 'keblinger', 'itu', 'selalu', 'menyerang', 'cadar', 'sorban', 'jenggot', 'celana', 'cingkrang', 'dan, lain, lain', 'yang', 'jelas', 'jelas', 'ada']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['irjen', 'pol', 'napoleon', 'kuasa', 'menghapuskan', 'nama', 'djoko', 'tjandra', 'daftar', 'cekal', 'berha']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['irjen', 'pol', 'napoleon', 'kuasa', 'hapus', 'nama', 'djoko', 'tjandra', 'daftar', 'cekal', 'berha']</t>
+          <t>['tokoh', 'keblinger', 'menyerang', 'cadar', 'sorban', 'jenggot', 'celana', 'cingkrang', 'dan, lain, lain']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['tokoh', 'keblinger', 'serang', 'cadar', 'sorban', 'jenggot', 'celana', 'cingkrang', 'dan lain lain']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15378</v>
+        <v>29775</v>
       </c>
       <c r="C29" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>memang fpi itu partai hemm</t>
+          <t>akibat beberapa tokoh islam yg kebelinger mengatakan di mana mana bahwa cadar penutup wajah bagi muslimah bkn ajara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['memang', 'fpi', 'itu', 'partai', 'hemm']</t>
+          <t>['akibat', 'beberapa', 'tokoh', 'islam', 'yg', 'kebelinger', 'mengatakan', 'di', 'mana', 'mana', 'bahwa', 'cadar', 'penutup', 'wajah', 'bagi', 'muslimah', 'bkn', 'ajara']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['akibat', 'beberapa', 'tokoh', 'islam', 'yang', 'kebelinger', 'mengatakan', 'di', 'mana', 'mana', 'bahwa', 'cadar', 'penutup', 'wajah', 'bagi', 'muslimah', 'bukan', 'ajara']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['fpi', 'partai', 'hemm']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['fpi', 'partai', 'hemm']</t>
+          <t>['akibat', 'tokoh', 'islam', 'kebelinger', 'cadar', 'penutup', 'wajah', 'muslimah', 'ajara']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['akibat', 'tokoh', 'islam', 'kebelinger', 'cadar', 'tutup', 'wajah', 'muslimah', 'ajara']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15379</v>
+        <v>29776</v>
       </c>
       <c r="C30" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>perjuangan</t>
+          <t>dia bilang frasa agama belum masuk ke dalam proyeksi pendidikan tahun karena belum final masih digodok</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['perjuangan']</t>
+          <t>['dia', 'bilang', 'frasa', 'agama', 'belum', 'masuk', 'ke', 'dalam', 'proyeksi', 'pendidikan', 'tahun', 'karena', 'belum', 'final', 'masih', 'digodok']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['dia', 'bilang', 'frasa', 'agama', 'belum', 'masuk', 'ke', 'dalam', 'proyeksi', 'pendidikan', 'tahun', 'karena', 'belum', 'final', 'masih', 'digodok']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['perjuangan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['juang']</t>
+          <t>['frasa', 'agama', 'masuk', 'proyeksi', 'pendidikan', 'final', 'digodok']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['frasa', 'agama', 'masuk', 'proyeksi', 'didik', 'final', 'godok']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15380</v>
+        <v>29777</v>
       </c>
       <c r="C31" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>beliau anak didik muhammadiyah tapi masalahnya bukan krn itu masalahnya spt yg saya tuliskan itu nu oposisi</t>
+          <t>rt hiitamku diakhirat nanti kita semua tidak bisa bohong di pengadilan allah swt karna mulut dan lidah dikunci alla</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['beliau', 'anak', 'didik', 'muhammadiyah', 'tapi', 'masalahnya', 'bukan', 'krn', 'itu', 'masalahnya', 'spt', 'yg', 'saya', 'tuliskan', 'itu', 'nu', 'oposisi']</t>
+          <t>['rt', 'hiitamku', 'diakhirat', 'nanti', 'kita', 'semua', 'tidak', 'bisa', 'bohong', 'di', 'pengadilan', 'allah', 'swt', 'karna', 'mulut', 'dan', 'lidah', 'dikunci', 'alla']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'hiitamku', 'diakhirat', 'nanti', 'kita', 'semua', 'tidak', 'bisa', 'bohong', 'di', 'pengadilan', 'allah', 'subhanahu, wa, taala', 'karena', 'mulut', 'dan', 'lidah', 'dikunci', 'alla']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['beliau', 'anak', 'didik', 'muhammadiyah', 'spt', 'tuliskan', 'nu', 'oposisi']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['beliau', 'anak', 'didik', 'muhammadiyah', 'spt', 'tulis', 'nu', 'oposisi']</t>
+          <t>['hiitamku', 'diakhirat', 'bohong', 'pengadilan', 'allah', 'subhanahu, wa, taala', 'mulut', 'lidah', 'dikunci', 'alla']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['hiitamku', 'akhirat', 'bohong', 'adil', 'allah', 'subhanahu wa taala', 'mulut', 'lidah', 'kunci', 'alla']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15381</v>
+        <v>29778</v>
       </c>
       <c r="C32" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>di zaman bung karno nu bergabung dengan nasakom nasionalis agama dan komunis di pemilu nu peserta pemilu</t>
+          <t>rt assalamualaikum ustad saya mau minta tolong untuk retweet cerita kakek budi yang ingin sekolahkan refan terima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['di', 'zaman', 'bung', 'karno', 'nu', 'bergabung', 'dengan', 'nasakom', 'nasionalis', 'agama', 'dan', 'komunis', 'di', 'pemilu', 'nu', 'peserta', 'pemilu']</t>
+          <t>['rt', 'assalamualaikum', 'ustad', 'saya', 'mau', 'minta', 'tolong', 'untuk', 'retweet', 'cerita', 'kakek', 'budi', 'yang', 'ingin', 'sekolahkan', 'refan', 'terima']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'assalamualaikum', 'ustad', 'saya', 'mau', 'meminta', 'tolong', 'untuk', 'retweet', 'cerita', 'kakek', 'budi', 'yang', 'ingin', 'sekolahkan', 'refan', 'terima']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['zaman', 'karno', 'nu', 'bergabung', 'nasakom', 'nasionalis', 'agama', 'komunis', 'pemilu', 'nu', 'peserta', 'pemilu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['zaman', 'karno', 'nu', 'gabung', 'nasakom', 'nasionalis', 'agama', 'komunis', 'milu', 'nu', 'serta', 'milu']</t>
+          <t>['assalamualaikum', 'ustad', 'tolong', 'retweet', 'cerita', 'kakek', 'budi', 'sekolahkan', 'refan', 'terima']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'ustad', 'tolong', 'retweet', 'cerita', 'kakek', 'budi', 'sekolah', 'refan', 'terima']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15382</v>
+        <v>29779</v>
       </c>
       <c r="C33" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ungkapan nu dibuang di zaman orde baru tdk sepenuhnya benar memang kader nu tdk dipakai jadi menteri agama krn nu</t>
+          <t>amin ya allah bi jahi annabiy shallallahu alaihi wa sallam</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['ungkapan', 'nu', 'dibuang', 'di', 'zaman', 'orde', 'baru', 'tdk', 'sepenuhnya', 'benar', 'memang', 'kader', 'nu', 'tdk', 'dipakai', 'jadi', 'menteri', 'agama', 'krn', 'nu']</t>
+          <t>['amin', 'ya', 'allah', 'bi', 'jahi', 'annabiy', 'shallallahu', 'alaihi', 'wa', 'sallam']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['amin', 'ya', 'allah', 'bi', 'jahi', 'annabiy', 'shallallahu', 'alaihi', 'wa', 'salam']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['ungkapan', 'nu', 'dibuang', 'zaman', 'orde', 'sepenuhnya', 'kader', 'nu', 'dipakai', 'menteri', 'agama', 'nu']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['ungkap', 'nu', 'buang', 'zaman', 'orde', 'sepenuh', 'kader', 'nu', 'pakai', 'menteri', 'agama', 'nu']</t>
+          <t>['amin', 'allah', 'bi', 'jahi', 'annabiy', 'shallallahu', 'alaihi', 'wa', 'salam']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['amin', 'allah', 'bi', 'jah', 'annabiy', 'shallallahu', 'alaihi', 'wa', 'salam']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15383</v>
+        <v>29780</v>
       </c>
       <c r="C34" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">cuma di indonesia ada musibah banjir satu orang gubernur dicaci maki tapi gubernur lainnya tidak bukannya bela </t>
+          <t>zaman dahulu utk membongkar kasus pembunuhan nabi musa mesti menghidupkan org mati atas izin allah pakai korban sa</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['cuma', 'di', 'indonesia', 'ada', 'musibah', 'banjir', 'satu', 'orang', 'gubernur', 'dicaci', 'maki', 'tapi', 'gubernur', 'lainnya', 'tidak', 'bukannya', 'bela']</t>
+          <t>['zaman', 'dahulu', 'utk', 'membongkar', 'kasus', 'pembunuhan', 'nabi', 'musa', 'mesti', 'menghidupkan', 'org', 'mati', 'atas', 'izin', 'allah', 'pakai', 'korban', 'sa']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['zaman', 'dahulu', 'untuk', 'membongkar', 'kasus', 'pembunuhan', 'nabi', 'musa', 'mesti', 'menghidupkan', 'orang', 'mati', 'atas', 'izin', 'allah', 'pakai', 'korban', 'sa']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['indonesia', 'musibah', 'banjir', 'orang', 'gubernur', 'dicaci', 'maki', 'gubernur', 'bela']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['indonesia', 'musibah', 'banjir', 'orang', 'gubernur', 'caci', 'maki', 'gubernur', 'bela']</t>
+          <t>['zaman', 'membongkar', 'pembunuhan', 'nabi', 'musa', 'mesti', 'menghidupkan', 'orang', 'mati', 'izin', 'allah', 'pakai', 'korban', 'sa']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['zaman', 'bongkar', 'bunuh', 'nabi', 'musa', 'mesti', 'hidup', 'orang', 'mati', 'izin', 'allah', 'pakai', 'korban', 'sa']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15384</v>
+        <v>29781</v>
       </c>
       <c r="C35" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>alhamdulillah banjir surut dalam satu hari saja hari ini malah sudah surut belum</t>
+          <t>kasihan jubah ini bukan hanya ada dj islam tapi juga budaya cina dul bangsa nenek moyang ibuku paham</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'banjir', 'surut', 'dalam', 'satu', 'hari', 'saja', 'hari', 'ini', 'malah', 'sudah', 'surut', 'belum']</t>
+          <t>['kasihan', 'jubah', 'ini', 'bukan', 'hanya', 'ada', 'dj', 'islam', 'tapi', 'juga', 'budaya', 'cina', 'dul', 'bangsa', 'nenek', 'moyang', 'ibuku', 'paham']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['kasihan', 'jubah', 'ini', 'bukan', 'hanya', 'ada', 'disc, jockey', 'islam', 'tapi', 'juga', 'budaya', 'cina', 'dul', 'bangsa', 'nenek', 'moyang', 'ibuku', 'paham']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'banjir', 'surut', 'surut']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'banjir', 'surut', 'surut']</t>
+          <t>['kasihan', 'jubah', 'disc, jockey', 'islam', 'budaya', 'cina', 'dul', 'bangsa', 'nenek', 'moyang', 'ibuku', 'paham']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['kasihan', 'jubah', 'disc jockey', 'islam', 'budaya', 'cina', 'dul', 'bangsa', 'nenek', 'moyang', 'ibu', 'paham']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15385</v>
+        <v>29782</v>
       </c>
       <c r="C36" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>bpjs ketenagakerjaan trilyun kata kejaksaan son</t>
+          <t>turki itu jelas sekuler sejak setelah turki osmaniyah ambruk oleh kamal attarturk skrg turki</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['bpjs', 'ketenagakerjaan', 'trilyun', 'kata', 'kejaksaan', 'son']</t>
+          <t>['turki', 'itu', 'jelas', 'sekuler', 'sejak', 'setelah', 'turki', 'osmaniyah', 'ambruk', 'oleh', 'kamal', 'attarturk', 'skrg', 'turki']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['turki', 'itu', 'jelas', 'sekuler', 'sejak', 'setelah', 'turki', 'osmaniyah', 'ambruk', 'oleh', 'kamal', 'attarturk', 'sekarang', 'turki']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['bpjs', 'ketenagakerjaan', 'trilyun', 'kejaksaan', 'son']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['bpjs', 'ketenagakerjaan', 'trilyun', 'jaksa', 'son']</t>
+          <t>['turki', 'sekuler', 'turki', 'osmaniyah', 'ambruk', 'kamal', 'attarturk', 'turki']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['turki', 'sekuler', 'turki', 'osmaniyah', 'ambruk', 'kamal', 'attarturk', 'turki']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15386</v>
+        <v>29783</v>
       </c>
       <c r="C37" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>wah panas nih ye</t>
+          <t>negara komunis china itu menekankan revolusi kebudayaan china dengan membuang agama agama dianggap sumber kemundur</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['wah', 'panas', 'nih', 'ye']</t>
+          <t>['negara', 'komunis', 'china', 'itu', 'menekankan', 'revolusi', 'kebudayaan', 'china', 'dengan', 'membuang', 'agama', 'agama', 'dianggap', 'sumber', 'kemundur']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['negara', 'komunis', 'cina', 'itu', 'menekankan', 'revolusi', 'kebudayaan', 'cina', 'dengan', 'membuang', 'agama', 'agama', 'dianggap', 'sumber', 'kemundur']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['panas', 'ye']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['panas', 'ye']</t>
+          <t>['negara', 'komunis', 'cina', 'menekankan', 'revolusi', 'kebudayaan', 'cina', 'membuang', 'agama', 'agama', 'dianggap', 'sumber', 'kemundur']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['negara', 'komunis', 'cina', 'tekan', 'revolusi', 'budaya', 'cina', 'buang', 'agama', 'agama', 'anggap', 'sumber', 'mundur']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15387</v>
+        <v>29784</v>
       </c>
       <c r="C38" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>pak pramono anung yang terhormat saya kira pernyataan yang lebih manfaat adalah besarnya uang yg dikorupsi di bpj</t>
+          <t>apanya wong sudah diakui di dpr ri oleh menteri nya kok akan diralat katanya</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['pak', 'pramono', 'anung', 'yang', 'terhormat', 'saya', 'kira', 'pernyataan', 'yang', 'lebih', 'manfaat', 'adalah', 'besarnya', 'uang', 'yg', 'dikorupsi', 'di', 'bpj']</t>
+          <t>['apanya', 'wong', 'sudah', 'diakui', 'di', 'dpr', 'ri', 'oleh', 'menteri', 'nya', 'kok', 'akan', 'diralat', 'katanya']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['apanya', 'orang', 'sudah', 'diakui', 'di', 'dewan, perwakilan, rakyat', 'ri', 'oleh', 'menteri', 'nya', 'kok', 'akan', 'diralat', 'katanya']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['pramono', 'anung', 'terhormat', 'pernyataan', 'manfaat', 'besarnya', 'uang', 'dikorupsi', 'bpj']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['pramono', 'anung', 'hormat', 'nyata', 'manfaat', 'besar', 'uang', 'korupsi', 'bpj']</t>
+          <t>['apanya', 'orang', 'diakui', 'dewan, perwakilan, rakyat', 'ri', 'menteri', 'diralat']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['apa', 'orang', 'aku', 'dewan wakil rakyat', 'ri', 'menteri', 'ralat']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15388</v>
+        <v>29785</v>
       </c>
       <c r="C39" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>pramono anung pdip mengatakan banjir jakarta tidak biasa dan belum pernah terjadi ta</t>
+          <t>wong ucapan mereka di tulis di media kok ya dijawab di media lah akal mu jangan kau copot buat ap</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['pramono', 'anung', 'pdip', 'mengatakan', 'banjir', 'jakarta', 'tidak', 'biasa', 'dan', 'belum', 'pernah', 'terjadi', 'ta']</t>
+          <t>['wong', 'ucapan', 'mereka', 'di', 'tulis', 'di', 'media', 'kok', 'ya', 'dijawab', 'di', 'media', 'lah', 'akal', 'mu', 'jangan', 'kau', 'copot', 'buat', 'ap']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['orang', 'ucapan', 'mereka', 'di', 'tulis', 'di', 'media', 'kok', 'ya', 'dijawab', 'di', 'media', 'lah', 'akal', 'mu', 'jangan', 'kamu', 'copot', 'buat', 'apa']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['pramono', 'anung', 'pdip', 'banjir', 'jakarta', 'ta']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['pramono', 'anung', 'pdip', 'banjir', 'jakarta', 'ta']</t>
+          <t>['orang', 'ucapan', 'tulis', 'media', 'media', 'akal', 'mu', 'copot']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['orang', 'ucap', 'tulis', 'media', 'media', 'akal', 'mu', 'copot']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15389</v>
+        <v>29786</v>
       </c>
       <c r="C40" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>beda beberapa jam saja krn sakit yg sama</t>
+          <t>benar</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['beda', 'beberapa', 'jam', 'saja', 'krn', 'sakit', 'yg', 'sama']</t>
+          <t>['benar']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['benar']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['beda', 'jam', 'sakit']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['beda', 'jam', 'sakit']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15390</v>
+        <v>29787</v>
       </c>
       <c r="C41" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">turut berduka cita atas wafatnya kawan seperjuangan mantan wasekjen mui periode dr nadjamuddin ramli </t>
+          <t>di makkah masjid haram dk medinah mesjid nabawi harom nabawi di akhir hayat nabi mengusir yahudi bani</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'cita', 'atas', 'wafatnya', 'kawan', 'seperjuangan', 'mantan', 'wasekjen', 'mui', 'periode', 'dr', 'nadjamuddin', 'ramli']</t>
+          <t>['di', 'makkah', 'masjid', 'haram', 'dk', 'medinah', 'mesjid', 'nabawi', 'harom', 'nabawi', 'di', 'akhir', 'hayat', 'nabi', 'mengusir', 'yahudi', 'bani']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['di', 'makkah', 'masjid', 'haram', 'dk', 'medinah', 'mesjid', 'nabawi', 'harom', 'nabawi', 'di', 'akhir', 'hayat', 'nabi', 'mengusir', 'yahudi', 'bani']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['berduka', 'cita', 'wafatnya', 'kawan', 'seperjuangan', 'mantan', 'wasekjen', 'mui', 'periode', 'dr', 'nadjamuddin', 'ramli']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'wafat', 'kawan', 'juang', 'mantan', 'wasekjen', 'mui', 'periode', 'dr', 'nadjamuddin', 'ramli']</t>
+          <t>['makkah', 'masjid', 'haram', 'dk', 'medinah', 'mesjid', 'nabawi', 'harom', 'nabawi', 'hayat', 'nabi', 'mengusir', 'yahudi', 'bani']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['makkah', 'masjid', 'haram', 'dk', 'medinah', 'mesjid', 'nabawi', 'harom', 'nabawi', 'hayat', 'nabi', 'usir', 'yahudi', 'bani']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15391</v>
+        <v>29788</v>
       </c>
       <c r="C42" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>uu ite kok disamakan dengan kitab suci apa pembuat uu ite sudah merasa jadi tuhan ya atau anda anggap tuhan</t>
+          <t xml:space="preserve">tjon dalilnya dari umar bin khattab beliau mendengar rasul melarang yahudi dan nasrani dari </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['uu', 'ite', 'kok', 'disamakan', 'dengan', 'kitab', 'suci', 'apa', 'pembuat', 'uu', 'ite', 'sudah', 'merasa', 'jadi', 'tuhan', 'ya', 'atau', 'anda', 'anggap', 'tuhan']</t>
+          <t>['tjon', 'dalilnya', 'dari', 'umar', 'bin', 'khattab', 'beliau', 'mendengar', 'rasul', 'melarang', 'yahudi', 'dan', 'nasrani', 'dari']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['tjon', 'dalilnya', 'dari', 'umar', 'bin', 'khattab', 'beliau', 'mendengar', 'rasul', 'melarang', 'yahudi', 'dan', 'nasrani', 'dari']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['uu', 'ite', 'disamakan', 'kitab', 'suci', 'pembuat', 'uu', 'ite', 'tuhan', 'anggap', 'tuhan']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['uu', 'ite', 'sama', 'kitab', 'suci', 'buat', 'uu', 'ite', 'tuhan', 'anggap', 'tuhan']</t>
+          <t>['tjon', 'dalilnya', 'umar', 'bin', 'khattab', 'beliau', 'mendengar', 'rasul', 'melarang', 'yahudi', 'nasrani']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['tjon', 'dalil', 'umar', 'bin', 'khattab', 'beliau', 'dengar', 'rasul', 'larang', 'yahudi', 'nasrani']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15392</v>
+        <v>29789</v>
       </c>
       <c r="C43" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>alfaqir seluruh gubernur se jawa se iman kok seluruh gubernur se sumatera juga se iman yg membuatmu ga</t>
+          <t>tjon mana lah imam syafii dan imam maliki kalah sama anda dan mana mungkin kedua beliau berf</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['alfaqir', 'seluruh', 'gubernur', 'se', 'jawa', 'se', 'iman', 'kok', 'seluruh', 'gubernur', 'se', 'sumatera', 'juga', 'se', 'iman', 'yg', 'membuatmu', 'ga']</t>
+          <t>['tjon', 'mana', 'lah', 'imam', 'syafii', 'dan', 'imam', 'maliki', 'kalah', 'sama', 'anda', 'dan', 'mana', 'mungkin', 'kedua', 'beliau', 'berf']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 18 outcomes&gt;</t>
+          <t>['tjon', 'mana', 'lah', 'imam', 'syafii', 'dan', 'imam', 'maliki', 'kalah', 'sama', 'anda', 'dan', 'mana', 'mungkin', 'kedua', 'beliau', 'berf']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['alfaqir', 'gubernur', 'jawa', 'iman', 'gubernur', 'sumatera', 'iman', 'membuatmu']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['alfaqir', 'gubernur', 'jawa', 'iman', 'gubernur', 'sumatera', 'iman', 'buat']</t>
+          <t>['tjon', 'imam', 'syafii', 'imam', 'maliki', 'kalah', 'beliau', 'berf']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['tjon', 'imam', 'syafii', 'imam', 'maliki', 'kalah', 'beliau', 'berf']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15393</v>
+        <v>29790</v>
       </c>
       <c r="C44" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>sabda nabi itu dikutip dari kitab hadis bukhari mbak</t>
+          <t>masalahnya perkataannya meniru mesjid nabawi mana ada nabawi dimasuki non muslim</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['sabda', 'nabi', 'itu', 'dikutip', 'dari', 'kitab', 'hadis', 'bukhari', 'mbak']</t>
+          <t>['masalahnya', 'perkataannya', 'meniru', 'mesjid', 'nabawi', 'mana', 'ada', 'nabawi', 'dimasuki', 'non', 'muslim']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['masalahnya', 'perkataannya', 'meniru', 'mesjid', 'nabawi', 'mana', 'ada', 'nabawi', 'dimasuki', 'non', 'muslim']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['sabda', 'nabi', 'dikutip', 'kitab', 'hadis', 'bukhari', 'mbak']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['sabda', 'nabi', 'kutip', 'kitab', 'hadis', 'bukhari', 'mbak']</t>
+          <t>['perkataannya', 'meniru', 'mesjid', 'nabawi', 'nabawi', 'dimasuki', 'non', 'muslim']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['kata', 'tiru', 'mesjid', 'nabawi', 'nabawi', 'masuk', 'non', 'muslim']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15394</v>
+        <v>29791</v>
       </c>
       <c r="C45" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>nabi bersabdasesungguhnya perkataan yg diwarisi orang orang dari nabi nabi terdahulu adalahjika engkau tidak ta</t>
+          <t>mesjid selain mesjid nabawi dan masjidil haram di makkah memang boleh yg ngawur pernyataan yg menga</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['nabi', 'bersabdasesungguhnya', 'perkataan', 'yg', 'diwarisi', 'orang', 'orang', 'dari', 'nabi', 'nabi', 'terdahulu', 'adalahjika', 'engkau', 'tidak', 'ta']</t>
+          <t>['mesjid', 'selain', 'mesjid', 'nabawi', 'dan', 'masjidil', 'haram', 'di', 'makkah', 'memang', 'boleh', 'yg', 'ngawur', 'pernyataan', 'yg', 'menga']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['mesjid', 'selain', 'mesjid', 'nabawi', 'dan', 'masjidil', 'haram', 'di', 'makkah', 'memang', 'boleh', 'yang', 'ngawur', 'pernyataan', 'yang', 'menga']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['nabi', 'bersabdasesungguhnya', 'perkataan', 'diwarisi', 'orang', 'orang', 'nabi', 'nabi', 'adalahjika', 'engkau', 'ta']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['nabi', 'bersabdasesungguhnya', 'kata', 'waris', 'orang', 'orang', 'nabi', 'nabi', 'adalahjika', 'engkau', 'ta']</t>
+          <t>['mesjid', 'mesjid', 'nabawi', 'masjidil', 'haram', 'makkah', 'ngawur', 'pernyataan', 'menga']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['mesjid', 'mesjid', 'nabawi', 'masjidil', 'haram', 'makkah', 'ngawur', 'nyata', 'menga']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15395</v>
+        <v>29792</v>
       </c>
       <c r="C46" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>tangerang semoga allah berikan kesabaran</t>
+          <t>sejak zaman nabi sekarang wilayah medinah yg tanah haram saja tidak semua medinah wilayah baru tap</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['tangerang', 'semoga', 'allah', 'berikan', 'kesabaran']</t>
+          <t>['sejak', 'zaman', 'nabi', 'sekarang', 'wilayah', 'medinah', 'yg', 'tanah', 'haram', 'saja', 'tidak', 'semua', 'medinah', 'wilayah', 'baru', 'tap']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sejak', 'zaman', 'nabi', 'sekarang', 'wilayah', 'medinah', 'yang', 'tanah', 'haram', 'saja', 'tidak', 'semua', 'medinah', 'wilayah', 'baru', 'tap']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['tangerang', 'semoga', 'allah', 'kesabaran']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['tangerang', 'moga', 'allah', 'sabar']</t>
+          <t>['zaman', 'nabi', 'wilayah', 'medinah', 'tanah', 'haram', 'medinah', 'wilayah', 'tap']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['zaman', 'nabi', 'wilayah', 'medinah', 'tanah', 'haram', 'medinah', 'wilayah', 'tap']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15396</v>
+        <v>29793</v>
       </c>
       <c r="C47" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>keadaan sekarang ini rekor hutang tertinggi indeks pangan kalah dgn negara afrika etiopia dan zimbabwe indeks de</t>
+          <t>yudha mana ada kasihan kamu nak nak</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['keadaan', 'sekarang', 'ini', 'rekor', 'hutang', 'tertinggi', 'indeks', 'pangan', 'kalah', 'dgn', 'negara', 'afrika', 'etiopia', 'dan', 'zimbabwe', 'indeks', 'de']</t>
+          <t>['yudha', 'mana', 'ada', 'kasihan', 'kamu', 'nak', 'nak']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['yudha', 'mana', 'ada', 'kasihan', 'kamu', 'nak', 'nak']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['rekor', 'hutang', 'tertinggi', 'indeks', 'pangan', 'kalah', 'negara', 'afrika', 'etiopia', 'zimbabwe', 'indeks', 'de']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['rekor', 'hutang', 'tinggi', 'indeks', 'pangan', 'kalah', 'negara', 'afrika', 'etiopia', 'zimbabwe', 'indeks', 'de']</t>
+          <t>['yudha', 'kasihan', 'nak', 'nak']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['yudha', 'kasihan', 'nak', 'nak']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15397</v>
+        <v>29794</v>
       </c>
       <c r="C48" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">anak pki tdk semuanya bermental pki anti islam ada beberapa kenalan saya anak pki tapi berbeda dgn bapaknya </t>
+          <t xml:space="preserve">imam samudra mengebom bali imam nahrowi korupsi duit kemenpora imam syafii dan imam maliki haromkan non muslim </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['anak', 'pki', 'tdk', 'semuanya', 'bermental', 'pki', 'anti', 'islam', 'ada', 'beberapa', 'kenalan', 'saya', 'anak', 'pki', 'tapi', 'berbeda', 'dgn', 'bapaknya']</t>
+          <t>['imam', 'samudra', 'mengebom', 'bali', 'imam', 'nahrowi', 'korupsi', 'duit', 'kemenpora', 'imam', 'syafii', 'dan', 'imam', 'maliki', 'haromkan', 'non', 'muslim']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['imam', 'samudra', 'mengebom', 'bali', 'imam', 'nahrowi', 'korupsi', 'duit', 'kemenpora', 'imam', 'syafii', 'dan', 'imam', 'maliki', 'haromkan', 'non', 'muslim']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['anak', 'pki', 'bermental', 'pki', 'anti', 'islam', 'kenalan', 'anak', 'pki', 'berbeda', 'bapaknya']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['anak', 'pki', 'mental', 'pki', 'anti', 'islam', 'kenal', 'anak', 'pki', 'beda', 'bapak']</t>
+          <t>['imam', 'samudra', 'mengebom', 'bali', 'imam', 'nahrowi', 'korupsi', 'duit', 'kemenpora', 'imam', 'syafii', 'imam', 'maliki', 'haromkan', 'non', 'muslim']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['imam', 'samudra', 'bom', 'bal', 'imam', 'nahrowi', 'korupsi', 'duit', 'kemenpora', 'imam', 'syafii', 'imam', 'maliki', 'haromkan', 'non', 'muslim']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15398</v>
+        <v>29795</v>
       </c>
       <c r="C49" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>turut berduka cita atas wafatnya ibu hj ellyda binti muhammad yatim ibunda dari shahabat kami fadli zon semoga al</t>
+          <t>tjon kalau bodoh jangan komen malu medinah dan mekkah sama sama kota haram disebut haromain mana paham ente</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'cita', 'atas', 'wafatnya', 'ibu', 'hj', 'ellyda', 'binti', 'muhammad', 'yatim', 'ibunda', 'dari', 'shahabat', 'kami', 'fadli', 'zon', 'semoga', 'al']</t>
+          <t>['tjon', 'kalau', 'bodoh', 'jangan', 'komen', 'malu', 'medinah', 'dan', 'mekkah', 'sama', 'sama', 'kota', 'haram', 'disebut', 'haromain', 'mana', 'paham', 'ente']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['tjon', 'kalau', 'bodoh', 'jangan', 'komen', 'malu', 'medinah', 'dan', 'makkah', 'sama', 'sama', 'kota', 'haram', 'disebut', 'haromain', 'mana', 'paham', 'kamu']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['berduka', 'cita', 'wafatnya', 'hj', 'ellyda', 'binti', 'muhammad', 'yatim', 'ibunda', 'shahabat', 'fadli', 'zon', 'semoga', 'al']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'wafat', 'hj', 'ellyda', 'binti', 'muhammad', 'yatim', 'ibunda', 'shahabat', 'fadli', 'zon', 'moga', 'al']</t>
+          <t>['tjon', 'bodoh', 'komen', 'malu', 'medinah', 'makkah', 'kota', 'haram', 'haromain', 'paham']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['tjon', 'bodoh', 'komen', 'malu', 'medinah', 'makkah', 'kota', 'haram', 'haromain', 'paham']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15399</v>
+        <v>29796</v>
       </c>
       <c r="C50" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>cihuy beli batangan</t>
+          <t>puan minta istiqlal jadi tempat belajar non muslim imam besar istiqlal sudah terlaksana sejak</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['cihuy', 'beli', 'batangan']</t>
+          <t>['puan', 'minta', 'istiqlal', 'jadi', 'tempat', 'belajar', 'non', 'muslim', 'imam', 'besar', 'istiqlal', 'sudah', 'terlaksana', 'sejak']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['puan', 'meminta', 'istiqlal', 'jadi', 'tempat', 'belajar', 'non', 'muslim', 'imam', 'besar', 'istiqlal', 'sudah', 'terlaksana', 'sejak']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['cihuy', 'beli', 'batangan']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['cihuy', 'beli', 'batang']</t>
+          <t>['puan', 'istiqlal', 'belajar', 'non', 'muslim', 'imam', 'istiqlal', 'terlaksana']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['puan', 'istiqlal', 'ajar', 'non', 'muslim', 'imam', 'istiqlal', 'laksana']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15400</v>
+        <v>29797</v>
       </c>
       <c r="C51" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>loh yg inden an orang itu haha</t>
+          <t>komunis muncul</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['loh', 'yg', 'inden', 'an', 'orang', 'itu', 'haha']</t>
+          <t>['komunis', 'muncul']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['komunis', 'muncul']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['inden', 'an', 'orang', 'haha']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['inden', 'an', 'orang', 'haha']</t>
+          <t>['komunis', 'muncul']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['komunis', 'muncul']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15401</v>
+        <v>29798</v>
       </c>
       <c r="C52" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>semoga allah melapangkan hidup anda amin</t>
+          <t>napoleon dan prasetiyo milyar divonis dan thn penjara kepala desa di indramayu terima juta divonis</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'melapangkan', 'hidup', 'anda', 'amin']</t>
+          <t>['napoleon', 'dan', 'prasetiyo', 'milyar', 'divonis', 'dan', 'thn', 'penjara', 'kepala', 'desa', 'di', 'indramayu', 'terima', 'juta', 'divonis']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['napoleon', 'dan', 'prasetiyo', 'milyar', 'divonis', 'dan', 'tahun', 'penjara', 'kepala', 'desa', 'di', 'indramayu', 'terima', 'juta', 'divonis']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'melapangkan', 'hidup', 'amin']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['moga', 'allah', 'lapang', 'hidup', 'amin']</t>
+          <t>['napoleon', 'prasetiyo', 'milyar', 'divonis', 'penjara', 'kepala', 'desa', 'indramayu', 'terima', 'juta', 'divonis']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['napoleon', 'prasetiyo', 'milyar', 'vonis', 'penjara', 'kepala', 'desa', 'indramayu', 'terima', 'juta', 'vonis']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15402</v>
+        <v>29799</v>
       </c>
       <c r="C53" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>kumpulkan uangmu belikan emas sudah cukup baru jual dan beli barang yg diperlukan maka ekonomi umat akan kuat da</t>
+          <t>dipikirnya islam toleran itu adalah yang membiarkan kemungkaran membiarkan kemungkaran itu setan bisu bukan to</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['kumpulkan', 'uangmu', 'belikan', 'emas', 'sudah', 'cukup', 'baru', 'jual', 'dan', 'beli', 'barang', 'yg', 'diperlukan', 'maka', 'ekonomi', 'umat', 'akan', 'kuat', 'da']</t>
+          <t>['dipikirnya', 'islam', 'toleran', 'itu', 'adalah', 'yang', 'membiarkan', 'kemungkaran', 'membiarkan', 'kemungkaran', 'itu', 'setan', 'bisu', 'bukan', 'to']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['dipikirnya', 'islam', 'toleran', 'itu', 'adalah', 'yang', 'membiarkan', 'kemungkaran', 'membiarkan', 'kemungkaran', 'itu', 'setan', 'bisu', 'bukan', 'to']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['kumpulkan', 'uangmu', 'belikan', 'emas', 'jual', 'beli', 'barang', 'ekonomi', 'umat', 'kuat', 'da']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['kumpul', 'uang', 'belikan', 'emas', 'jual', 'beli', 'barang', 'ekonomi', 'umat', 'kuat', 'da']</t>
+          <t>['dipikirnya', 'islam', 'toleran', 'membiarkan', 'kemungkaran', 'membiarkan', 'kemungkaran', 'setan', 'bisu', 'to']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['pikir', 'islam', 'toleran', 'biar', 'mungkar', 'biar', 'mungkar', 'setan', 'bisu', 'to']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15403</v>
+        <v>29800</v>
       </c>
       <c r="C54" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>kabar gembira dari gubernur bi kredit mobil dan motor serta rumah mulai maret esok bebas biaya uang muka alias</t>
+          <t>justru pejuang kemerdekaan semuanya disemangati oleh ajaran agama pki tidak ikut memperjuangkan kemerdeka</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['kabar', 'gembira', 'dari', 'gubernur', 'bi', 'kredit', 'mobil', 'dan', 'motor', 'serta', 'rumah', 'mulai', 'maret', 'esok', 'bebas', 'biaya', 'uang', 'muka', 'alias']</t>
+          <t>['justru', 'pejuang', 'kemerdekaan', 'semuanya', 'disemangati', 'oleh', 'ajaran', 'agama', 'pki', 'tidak', 'ikut', 'memperjuangkan', 'kemerdeka']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['justru', 'pejuang', 'kemerdekaan', 'semuanya', 'disemangati', 'oleh', 'ajaran', 'agama', 'partai, komunis, indonesia', 'tidak', 'ikut', 'memperjuangkan', 'kemerdeka']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['kabar', 'gembira', 'gubernur', 'bi', 'kredit', 'mobil', 'motor', 'rumah', 'maret', 'esok', 'bebas', 'biaya', 'uang', 'muka', 'alias']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['kabar', 'gembira', 'gubernur', 'bi', 'kredit', 'mobil', 'motor', 'rumah', 'maret', 'esok', 'bebas', 'biaya', 'uang', 'muka', 'alias']</t>
+          <t>['pejuang', 'kemerdekaan', 'disemangati', 'ajaran', 'agama', 'partai, komunis, indonesia', 'memperjuangkan', 'kemerdeka']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['juang', 'merdeka', 'semangat', 'ajar', 'agama', 'partai komunis indonesia', 'juang', 'merdeka']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15404</v>
+        <v>29801</v>
       </c>
       <c r="C55" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>alhandulillah sejak usia tahun se kampung saya manggil mas ustadz apalagi sekarang</t>
+          <t>konangan</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['alhandulillah', 'sejak', 'usia', 'tahun', 'se', 'kampung', 'saya', 'manggil', 'mas', 'ustadz', 'apalagi', 'sekarang']</t>
+          <t>['konangan']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['konangan']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['alhandulillah', 'usia', 'kampung', 'manggil', 'mas', 'ustadz']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['alhandulillah', 'usia', 'kampung', 'manggil', 'mas', 'ustadz']</t>
+          <t>['konangan']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['konangan']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15405</v>
+        <v>29802</v>
       </c>
       <c r="C56" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>indonesia tarik hutang trilyun dari bank dunia sementara duit yg dimaling bpjs tenaga kerja jiwasraya asabri</t>
+          <t>gea ya diri kita sendiri ada yg mau membuang agama ada yg mau menjadikan agama sekedar di ktp saja masala</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['indonesia', 'tarik', 'hutang', 'trilyun', 'dari', 'bank', 'dunia', 'sementara', 'duit', 'yg', 'dimaling', 'bpjs', 'tenaga', 'kerja', 'jiwasraya', 'asabri']</t>
+          <t>['gea', 'ya', 'diri', 'kita', 'sendiri', 'ada', 'yg', 'mau', 'membuang', 'agama', 'ada', 'yg', 'mau', 'menjadikan', 'agama', 'sekedar', 'di', 'ktp', 'saja', 'masala']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['gea', 'ya', 'diri', 'kita', 'sendiri', 'ada', 'yang', 'mau', 'membuang', 'agama', 'ada', 'yang', 'mau', 'menjadikan', 'agama', 'sekadar', 'di', 'kartu, tanda, penduduk', 'saja', 'masala']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['indonesia', 'tarik', 'hutang', 'trilyun', 'bank', 'dunia', 'duit', 'dimaling', 'bpjs', 'tenaga', 'kerja', 'jiwasraya', 'asabri']</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['indonesia', 'tarik', 'hutang', 'trilyun', 'bank', 'dunia', 'duit', 'maling', 'bpjs', 'tenaga', 'kerja', 'jiwasraya', 'asabri']</t>
+          <t>['gea', 'membuang', 'agama', 'menjadikan', 'agama', 'kartu, tanda, penduduk', 'masala']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['gea', 'buang', 'agama', 'jadi', 'agama', 'kartu tanda duduk', 'masala']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15406</v>
+        <v>29803</v>
       </c>
       <c r="C57" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>yg mikirin siapa yang merasakan siapa</t>
+          <t>bagi kami agama itu wahyu allah dan sabdaan nabi kadang melebihi akal dan logika dah gitu aja</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['yg', 'mikirin', 'siapa', 'yang', 'merasakan', 'siapa']</t>
+          <t>['bagi', 'kami', 'agama', 'itu', 'wahyu', 'allah', 'dan', 'sabdaan', 'nabi', 'kadang', 'melebihi', 'akal', 'dan', 'logika', 'dah', 'gitu', 'aja']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['bagi', 'kami', 'agama', 'itu', 'wahyu', 'allah', 'dan', 'sabdaan', 'nabi', 'kadang', 'melebihi', 'akal', 'dan', 'logika', 'sudah', 'begitu', 'saja']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['mikirin', 'merasakan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['mikirin', 'rasa']</t>
+          <t>['agama', 'wahyu', 'allah', 'sabdaan', 'nabi', 'kadang', 'melebihi', 'akal', 'logika']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['agama', 'wahyu', 'allah', 'sabda', 'nabi', 'kadang', 'lebih', 'akal', 'logika']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15407</v>
+        <v>29804</v>
       </c>
       <c r="C58" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>hutang negara sdh trilyun rupiah tahun pemerintah mau tambah hutang trilyun lagi lewat sbn nah ad</t>
+          <t>agama itu mau dibawa mati sampai barzakh dan akhirat paham pak menteri selain agama tidak ada yang dibaw</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['hutang', 'negara', 'sdh', 'trilyun', 'rupiah', 'tahun', 'pemerintah', 'mau', 'tambah', 'hutang', 'trilyun', 'lagi', 'lewat', 'sbn', 'nah', 'ad']</t>
+          <t>['agama', 'itu', 'mau', 'dibawa', 'mati', 'sampai', 'barzakh', 'dan', 'akhirat', 'paham', 'pak', 'menteri', 'selain', 'agama', 'tidak', 'ada', 'yang', 'dibaw']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['agama', 'itu', 'mau', 'dibawa', 'mati', 'sampai', 'barzakh', 'dan', 'akhirat', 'paham', 'pak', 'menteri', 'selain', 'agama', 'tidak', 'ada', 'yang', 'dibaw']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['hutang', 'negara', 'trilyun', 'rupiah', 'pemerintah', 'hutang', 'trilyun', 'sbn', 'ad']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['hutang', 'negara', 'trilyun', 'rupiah', 'perintah', 'hutang', 'trilyun', 'sbn', 'ad']</t>
+          <t>['agama', 'dibawa', 'mati', 'barzakh', 'akhirat', 'paham', 'menteri', 'agama', 'dibaw']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['agama', 'bawa', 'mati', 'barzakh', 'akhirat', 'paham', 'menteri', 'agama', 'dibaw']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15408</v>
+        <v>29805</v>
       </c>
       <c r="C59" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>orang yang sudah gagal bekerja tapi malah minta tambah masa kerja adalah orang yg serakah tapi tidak tahu malu dan</t>
+          <t>nadiemtidak sangka ketiadaan frasa agama pd peta jalan pendidikan timbulkan polemik lha frasa budaya</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['orang', 'yang', 'sudah', 'gagal', 'bekerja', 'tapi', 'malah', 'minta', 'tambah', 'masa', 'kerja', 'adalah', 'orang', 'yg', 'serakah', 'tapi', 'tidak', 'tahu', 'malu', 'dan']</t>
+          <t>['nadiemtidak', 'sangka', 'ketiadaan', 'frasa', 'agama', 'pd', 'peta', 'jalan', 'pendidikan', 'timbulkan', 'polemik', 'lha', 'frasa', 'budaya']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['nadiemtidak', 'sangka', 'ketiadaan', 'frasa', 'agama', 'pada', 'peta', 'jalan', 'pendidikan', 'timbulkan', 'polemik', 'lah', 'frasa', 'budaya']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['orang', 'gagal', 'kerja', 'orang', 'serakah', 'malu']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['orang', 'gagal', 'kerja', 'orang', 'serakah', 'malu']</t>
+          <t>['nadiemtidak', 'sangka', 'ketiadaan', 'frasa', 'agama', 'peta', 'jalan', 'pendidikan', 'timbulkan', 'polemik', 'frasa', 'budaya']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['nadiemtidak', 'sangka', 'tiada', 'frasa', 'agama', 'peta', 'jalan', 'didik', 'timbul', 'polemik', 'frasa', 'budaya']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15409</v>
+        <v>29806</v>
       </c>
       <c r="C60" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>hasilnya indeks pangan nomor urut</t>
+          <t>mabruuk tadi malam saya ceramah di mathlaul anwar pontianak kalimantan barat</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['hasilnya', 'indeks', 'pangan', 'nomor', 'urut']</t>
+          <t>['mabruuk', 'tadi', 'malam', 'saya', 'ceramah', 'di', 'mathlaul', 'anwar', 'pontianak', 'kalimantan', 'barat']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['mabruuk', 'tadi', 'malam', 'saya', 'ceramah', 'di', 'mathlaul', 'anwar', 'pontianak', 'kalimantan', 'barat']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['hasilnya', 'indeks', 'pangan', 'nomor', 'urut']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['hasil', 'indeks', 'pangan', 'nomor', 'urut']</t>
+          <t>['mabruuk', 'malam', 'ceramah', 'mathlaul', 'anwar', 'pontianak', 'kalimantan', 'barat']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['mabruuk', 'malam', 'ceramah', 'mathlaul', 'anwar', 'pontianak', 'kalimantan', 'barat']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15410</v>
+        <v>29807</v>
       </c>
       <c r="C61" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>saya mau bertanya bagaimana cara mencetak orang model seperti kamu ini ya heran kok bisa dan ada dah gitu aja</t>
+          <t>al hukmu qablal bayan zhulmun menghukum orang tdk ada bukti dan saksi adalah sebuah kezaliman jika saksi perkara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['saya', 'mau', 'bertanya', 'bagaimana', 'cara', 'mencetak', 'orang', 'model', 'seperti', 'kamu', 'ini', 'ya', 'heran', 'kok', 'bisa', 'dan', 'ada', 'dah', 'gitu', 'aja']</t>
+          <t>['al', 'hukmu', 'qablal', 'bayan', 'zhulmun', 'menghukum', 'orang', 'tdk', 'ada', 'bukti', 'dan', 'saksi', 'adalah', 'sebuah', 'kezaliman', 'jika', 'saksi', 'perkara']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['al', 'hukmu', 'qablal', 'bayan', 'zhulmun', 'menghukum', 'orang', 'tidak', 'ada', 'bukti', 'dan', 'saksi', 'adalah', 'sebuah', 'kezaliman', 'jika', 'saksi', 'perkara']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['mencetak', 'orang', 'model', 'heran', 'dah', 'gitu']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['cetak', 'orang', 'model', 'heran', 'dah', 'gitu']</t>
+          <t>['al', 'hukmu', 'qablal', 'bayan', 'zhulmun', 'menghukum', 'orang', 'bukti', 'saksi', 'kezaliman', 'saksi', 'perkara']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['al', 'hukmu', 'qablal', 'bayan', 'zhulmun', 'hukum', 'orang', 'bukti', 'saksi', 'zalim', 'saksi', 'perkara']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15411</v>
+        <v>29808</v>
       </c>
       <c r="C62" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>menurut food sustainability index dunia menempatkan indonesia di dlm indeks pangan di uruta</t>
+          <t>wow masjidmasjid bumn bakal dikuasai kiai nu dsjujur saya sekarang bisa bernafas lebih lega</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['menurut', 'food', 'sustainability', 'index', 'dunia', 'menempatkan', 'indonesia', 'di', 'dlm', 'indeks', 'pangan', 'di', 'uruta']</t>
+          <t>['wow', 'masjidmasjid', 'bumn', 'bakal', 'dikuasai', 'kiai', 'nu', 'dsjujur', 'saya', 'sekarang', 'bisa', 'bernafas', 'lebih', 'lega']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['wah', 'masjidmasjid', 'badan, usaha, milik, negara', 'bakal', 'dikuasai', 'kiai', 'nu', 'dsjujur', 'saya', 'sekarang', 'bisa', 'bernafas', 'lebih', 'lega']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['food', 'sustainability', 'index', 'dunia', 'menempatkan', 'indonesia', 'dlm', 'indeks', 'pangan', 'uruta']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['food', 'sustainability', 'index', 'dunia', 'tempat', 'indonesia', 'dlm', 'indeks', 'pangan', 'uruta']</t>
+          <t>['masjidmasjid', 'badan, usaha, milik, negara', 'dikuasai', 'kiai', 'nu', 'dsjujur', 'bernafas', 'lega']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['masjidmasjid', 'badan usaha milik negara', 'asai', 'kiai', 'nu', 'dsjujur', 'nafas', 'lega']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15412</v>
+        <v>29809</v>
       </c>
       <c r="C63" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>di uu ite bab penjelasan pasal dikatakan bahwa yg berhak mengadukan perkara adalah si korban sendiri pada kasus</t>
+          <t xml:space="preserve">apa urusannya dgn membunuh dul tdk ngurusi agama lain itu ajaran islam di sumbar adat bersendi </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['di', 'uu', 'ite', 'bab', 'penjelasan', 'pasal', 'dikatakan', 'bahwa', 'yg', 'berhak', 'mengadukan', 'perkara', 'adalah', 'si', 'korban', 'sendiri', 'pada', 'kasus']</t>
+          <t>['apa', 'urusannya', 'dgn', 'membunuh', 'dul', 'tdk', 'ngurusi', 'agama', 'lain', 'itu', 'ajaran', 'islam', 'di', 'sumbar', 'adat', 'bersendi']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['apa', 'urusannya', 'dengan', 'membunuh', 'dul', 'tidak', 'mengurusi', 'agama', 'lain', 'itu', 'ajaran', 'islam', 'di', 'sumbar', 'adat', 'bersendi']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['uu', 'ite', 'bab', 'penjelasan', 'pasal', 'berhak', 'mengadukan', 'perkara', 'korban']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['uu', 'ite', 'bab', 'jelas', 'pasal', 'hak', 'adu', 'perkara', 'korban']</t>
+          <t>['urusannya', 'membunuh', 'dul', 'mengurusi', 'agama', 'ajaran', 'islam', 'sumbar', 'adat', 'bersendi']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['urus', 'bunuh', 'dul', 'urus', 'agama', 'ajar', 'islam', 'sumbar', 'adat', 'sendi']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15413</v>
+        <v>29810</v>
       </c>
       <c r="C64" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>audzubillahi minasysyaithonirrojim</t>
+          <t>mana ada dia protes krn itu alasannya krn tdk ada dasar hukumnya di negara baca dong link nya</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['audzubillahi', 'minasysyaithonirrojim']</t>
+          <t>['mana', 'ada', 'dia', 'protes', 'krn', 'itu', 'alasannya', 'krn', 'tdk', 'ada', 'dasar', 'hukumnya', 'di', 'negara', 'baca', 'dong', 'link', 'nya']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['mana', 'ada', 'dia', 'protes', 'karena', 'itu', 'alasannya', 'karena', 'tidak', 'ada', 'dasar', 'hukumnya', 'di', 'negara', 'baca', 'dong', 'link', 'nya']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['audzubillahi', 'minasysyaithonirrojim']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['audzubillahi', 'minasysyaithonirrojim']</t>
+          <t>['protes', 'alasannya', 'dasar', 'hukumnya', 'negara', 'baca', 'link']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['protes', 'alas', 'dasar', 'hukum', 'negara', 'baca', 'link']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15414</v>
+        <v>29811</v>
       </c>
       <c r="C65" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>mau pakai skb menteri bahkan menteri ditambah peraturan presiden ditambah piagam pbb sekalipun kalau membo</t>
+          <t>aneh dalam rangka mendidik asn biar sholih kok ente protes soal hukum berjamaah ikhtilaf ada yg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['mau', 'pakai', 'skb', 'menteri', 'bahkan', 'menteri', 'ditambah', 'peraturan', 'presiden', 'ditambah', 'piagam', 'pbb', 'sekalipun', 'kalau', 'membo']</t>
+          <t>['aneh', 'dalam', 'rangka', 'mendidik', 'asn', 'biar', 'sholih', 'kok', 'ente', 'protes', 'soal', 'hukum', 'berjamaah', 'ikhtilaf', 'ada', 'yg']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['aneh', 'dalam', 'rangka', 'mendidik', 'aparatur, sipil, negara', 'biar', 'sholih', 'kok', 'kamu', 'protes', 'soal', 'hukum', 'berjemaah', 'ikhtilaf', 'ada', 'yang']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['pakai', 'skb', 'menteri', 'menteri', 'ditambah', 'peraturan', 'presiden', 'ditambah', 'piagam', 'pbb', 'membo']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['pakai', 'skb', 'menteri', 'menteri', 'tambah', 'atur', 'presiden', 'tambah', 'piagam', 'pbb', 'membo']</t>
+          <t>['aneh', 'rangka', 'mendidik', 'aparatur, sipil, negara', 'sholih', 'protes', 'hukum', 'berjemaah', 'ikhtilaf']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['aneh', 'rangka', 'didik', 'aparatur sipil negara', 'sholih', 'protes', 'hukum', 'jemaah', 'ikhtilaf']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15415</v>
+        <v>29812</v>
       </c>
       <c r="C66" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>makanya masuk islam terus belajar tentang taqdir biar lurus pahammu</t>
+          <t>cacian nya di mana ya ente sehatkah</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['makanya', 'masuk', 'islam', 'terus', 'belajar', 'tentang', 'taqdir', 'biar', 'lurus', 'pahammu']</t>
+          <t>['cacian', 'nya', 'di', 'mana', 'ya', 'ente', 'sehatkah']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['cacian', 'nya', 'di', 'mana', 'ya', 'kamu', 'sehatkah']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['masuk', 'islam', 'belajar', 'taqdir', 'lurus', 'pahammu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['masuk', 'islam', 'ajar', 'taqdir', 'lurus', 'paham']</t>
+          <t>['cacian', 'sehatkah']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['caci', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,35 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15416</v>
+        <v>29813</v>
       </c>
       <c r="C67" t="n">
-        <v>195</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">rt kontras ragu beliau serius revisi uu ite saya mendukung penuh dan apresiasi pak yg minta revisi uu ite jika </t>
-        </is>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'kontras', 'ragu', 'beliau', 'serius', 'revisi', 'uu', 'ite', 'saya', 'mendukung', 'penuh', 'dan', 'apresiasi', 'pak', 'yg', 'minta', 'revisi', 'uu', 'ite', 'jika']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['kontras', 'ragu', 'beliau', 'serius', 'revisi', 'uu', 'ite', 'mendukung', 'penuh', 'apresiasi', 'revisi', 'uu', 'ite']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['kontras', 'ragu', 'beliau', 'serius', 'revisi', 'uu', 'ite', 'dukung', 'penuh', 'apresiasi', 'revisi', 'uu', 'ite']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15417</v>
+        <v>29814</v>
       </c>
       <c r="C68" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>kapolriuu ite polisi utamakan mediasi asal jangan hanya utk selamatkan abu janda dkk pak</t>
+          <t>ada paksaan buat umat islam utk menjalankan agamanya sholat berjamaah itu boleh dipaksa pada umat is</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['kapolriuu', 'ite', 'polisi', 'utamakan', 'mediasi', 'asal', 'jangan', 'hanya', 'utk', 'selamatkan', 'abu', 'janda', 'dkk', 'pak']</t>
+          <t>['ada', 'paksaan', 'buat', 'umat', 'islam', 'utk', 'menjalankan', 'agamanya', 'sholat', 'berjamaah', 'itu', 'boleh', 'dipaksa', 'pada', 'umat', 'is']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['ada', 'paksaan', 'buat', 'umat', 'islam', 'untuk', 'menjalankan', 'agamanya', 'salat', 'berjemaah', 'itu', 'boleh', 'dipaksa', 'pada', 'umat', 'is']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['kapolriuu', 'ite', 'polisi', 'utamakan', 'mediasi', 'selamatkan', 'abu', 'janda', 'dkk']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['kapolriuu', 'ite', 'polisi', 'utama', 'mediasi', 'selamat', 'abu', 'janda', 'dkk']</t>
+          <t>['paksaan', 'umat', 'islam', 'menjalankan', 'agamanya', 'salat', 'berjemaah', 'dipaksa', 'umat', 'is']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['paksa', 'umat', 'islam', 'jalan', 'agama', 'salat', 'jemaah', 'paksa', 'umat', 'is']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15418</v>
+        <v>29815</v>
       </c>
       <c r="C69" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>susah kalau menghadapi manusia kayak begini hoaaam</t>
+          <t>kita tdk urusi non muslim itu aturan utk asn muslim pria saja</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['susah', 'kalau', 'menghadapi', 'manusia', 'kayak', 'begini', 'hoaaam']</t>
+          <t>['kita', 'tdk', 'urusi', 'non', 'muslim', 'itu', 'aturan', 'utk', 'asn', 'muslim', 'pria', 'saja']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kita', 'tidak', 'urusi', 'non', 'muslim', 'itu', 'aturan', 'untuk', 'aparatur, sipil, negara', 'muslim', 'pria', 'saja']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['susah', 'menghadapi', 'manusia', 'kayak', 'hoaaam']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['susah', 'hadap', 'manusia', 'kayak', 'hoaaam']</t>
+          <t>['urusi', 'non', 'muslim', 'aturan', 'aparatur, sipil, negara', 'muslim', 'pria']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['urus', 'non', 'muslim', 'atur', 'aparatur sipil negara', 'muslim', 'pria']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15419</v>
+        <v>29816</v>
       </c>
       <c r="C70" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>tahanan bukan penjara bos</t>
+          <t>semestinya yang diprotes gp anshor itu hilangnya frasa agama pada peta proyeksi pendidikan ri di sekolah tahu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['tahanan', 'bukan', 'penjara', 'bos']</t>
+          <t>['semestinya', 'yang', 'diprotes', 'gp', 'anshor', 'itu', 'hilangnya', 'frasa', 'agama', 'pada', 'peta', 'proyeksi', 'pendidikan', 'ri', 'di', 'sekolah', 'tahu']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['semestinya', 'yang', 'diprotes', 'gp', 'ansar', 'itu', 'hilangnya', 'frasa', 'agama', 'pada', 'peta', 'proyeksi', 'pendidikan', 'ri', 'di', 'sekolah', 'tahu']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['tahanan', 'penjara', 'bos']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['tahan', 'penjara', 'bos']</t>
+          <t>['semestinya', 'diprotes', 'gp', 'ansar', 'hilangnya', 'frasa', 'agama', 'peta', 'proyeksi', 'pendidikan', 'ri', 'sekolah']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['mesti', 'protes', 'gp', 'ansar', 'hilang', 'frasa', 'agama', 'peta', 'proyeksi', 'didik', 'ri', 'sekolah']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15420</v>
+        <v>29817</v>
       </c>
       <c r="C71" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>kontras ragu beliau serius revisi uu ite saya mendukung penuh dan apresiasi pak yg minta revisi uu ite ji</t>
+          <t xml:space="preserve">apa para kiyai tidak mendidik para aktivis anshor kearifan lokal di sumbar adat bersendi syara syara bersendi </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['kontras', 'ragu', 'beliau', 'serius', 'revisi', 'uu', 'ite', 'saya', 'mendukung', 'penuh', 'dan', 'apresiasi', 'pak', 'yg', 'minta', 'revisi', 'uu', 'ite', 'ji']</t>
+          <t>['apa', 'para', 'kiyai', 'tidak', 'mendidik', 'para', 'aktivis', 'anshor', 'kearifan', 'lokal', 'di', 'sumbar', 'adat', 'bersendi', 'syara', 'syara', 'bersendi']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['apa', 'para', 'kiyai', 'tidak', 'mendidik', 'para', 'aktivis', 'ansar', 'kearifan', 'lokal', 'di', 'sumbar', 'adat', 'bersendi', 'syara', 'syara', 'bersendi']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['kontras', 'ragu', 'beliau', 'serius', 'revisi', 'uu', 'ite', 'mendukung', 'penuh', 'apresiasi', 'revisi', 'uu', 'ite', 'ji']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['kontras', 'ragu', 'beliau', 'serius', 'revisi', 'uu', 'ite', 'dukung', 'penuh', 'apresiasi', 'revisi', 'uu', 'ite', 'ji']</t>
+          <t>['kiyai', 'mendidik', 'aktivis', 'ansar', 'kearifan', 'lokal', 'sumbar', 'adat', 'bersendi', 'syara', 'syara', 'bersendi']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['kiyai', 'didik', 'aktivis', 'ansar', 'arif', 'lokal', 'sumbar', 'adat', 'sendi', 'syara', 'syara', 'sendi']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15421</v>
+        <v>29818</v>
       </c>
       <c r="C72" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>suka sekali saya teri bersih seperti ini</t>
+          <t>kalbar</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['suka', 'sekali', 'saya', 'teri', 'bersih', 'seperti', 'ini']</t>
+          <t>['kalbar']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kalimantan, barat']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['suka', 'teri', 'bersih']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['suka', 'teri', 'bersih']</t>
+          <t>['kalimantan, barat']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['kalimantan barat']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15422</v>
+        <v>29819</v>
       </c>
       <c r="C73" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt assalamualaikum ustad bantu retweet dongbiar ikan dari daerah kami makin dikenal dan bisa menaikan </t>
+          <t>benar salah tulis mestinya kalimantan barat</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'assalamualaikum', 'ustad', 'bantu', 'retweet', 'dongbiar', 'ikan', 'dari', 'daerah', 'kami', 'makin', 'dikenal', 'dan', 'bisa', 'menaikan']</t>
+          <t>['benar', 'salah', 'tulis', 'mestinya', 'kalimantan', 'barat']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['benar', 'salah', 'tulis', 'mestinya', 'kalimantan', 'barat']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'ustad', 'bantu', 'retweet', 'dongbiar', 'ikan', 'daerah', 'dikenal', 'menaikan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'ustad', 'bantu', 'retweet', 'dongbiar', 'ikan', 'daerah', 'kenal', 'naik']</t>
+          <t>['salah', 'tulis', 'mestinya', 'kalimantan', 'barat']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['salah', 'tulis', 'mesti', 'kalimantan', 'barat']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15423</v>
+        <v>29820</v>
       </c>
       <c r="C74" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ada ada saja cara orang cari makan itb institute tambal ban hehe</t>
+          <t>insyaallah lepas covid mohon doanya</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['ada', 'ada', 'saja', 'cara', 'orang', 'cari', 'makan', 'itb', 'institute', 'tambal', 'ban', 'hehe']</t>
+          <t>['insyaallah', 'lepas', 'covid', 'mohon', 'doanya']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['insyaallah', 'lepas', 'covid', 'mohon', 'doanya']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['orang', 'cari', 'makan', 'itb', 'institute', 'tambal', 'ban']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['orang', 'cari', 'makan', 'itb', 'institute', 'tambal', 'ban']</t>
+          <t>['insyaallah', 'lepas', 'covid', 'mohon', 'doanya']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['insyaallah', 'lepas', 'covid', 'mohon', 'doa']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15424</v>
+        <v>29821</v>
       </c>
       <c r="C75" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>sebutkan contohnya di mana daerah mayoritas muslim di dunia ini yg terjadi konflik dgn minoritas di sana</t>
+          <t>alhamdulillah perjalanan dakwah hari pontianak ketapang dan koyong utara kalimantan utara telah selesai semog</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['sebutkan', 'contohnya', 'di', 'mana', 'daerah', 'mayoritas', 'muslim', 'di', 'dunia', 'ini', 'yg', 'terjadi', 'konflik', 'dgn', 'minoritas', 'di', 'sana']</t>
+          <t>['alhamdulillah', 'perjalanan', 'dakwah', 'hari', 'pontianak', 'ketapang', 'dan', 'koyong', 'utara', 'kalimantan', 'utara', 'telah', 'selesai', 'semog']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['alhamdulillah', 'perjalanan', 'dakwah', 'hari', 'pontianak', 'ketapang', 'dan', 'koyong', 'utara', 'kalimantan', 'utara', 'telah', 'selesai', 'semog']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['sebutkan', 'contohnya', 'daerah', 'mayoritas', 'muslim', 'dunia', 'konflik', 'minoritas']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['sebut', 'contoh', 'daerah', 'mayoritas', 'muslim', 'dunia', 'konflik', 'minoritas']</t>
+          <t>['alhamdulillah', 'perjalanan', 'dakwah', 'pontianak', 'ketapang', 'koyong', 'utara', 'kalimantan', 'utara', 'selesai', 'semog']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'jalan', 'dakwah', 'pontianak', 'ketapang', 'koyong', 'utara', 'kalimantan', 'utara', 'selesai', 'semog']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3510,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15425</v>
+        <v>29822</v>
       </c>
       <c r="C76" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>dan orang jawa itu lebih islam toh</t>
+          <t>kerumunan klb demokrat tidak kantongi izin ayo polisi apalagi apakah mereka tidak ditangkap krn pelaku kerumunan</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['dan', 'orang', 'jawa', 'itu', 'lebih', 'islam', 'toh']</t>
+          <t>['kerumunan', 'klb', 'demokrat', 'tidak', 'kantongi', 'izin', 'ayo', 'polisi', 'apalagi', 'apakah', 'mereka', 'tidak', 'ditangkap', 'krn', 'pelaku', 'kerumunan']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kerumunan', 'klb', 'demokrat', 'tidak', 'kantongi', 'izin', 'ayo', 'polisi', 'apalagi', 'apakah', 'mereka', 'tidak', 'ditangkap', 'karena', 'pelaku', 'kerumunan']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'islam']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'islam']</t>
+          <t>['kerumunan', 'klb', 'demokrat', 'kantongi', 'izin', 'ayo', 'polisi', 'ditangkap', 'pelaku', 'kerumunan']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['kerumun', 'klb', 'demokrat', 'kantong', 'izin', 'ayo', 'polisi', 'tangkap', 'laku', 'kerumun']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15426</v>
+        <v>29823</v>
       </c>
       <c r="C77" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>hiitamku seimbang itu tidak harus sama yg banyak dapat banyak dan yg sedikit maka dapat sedikit itu nama nya seimbang</t>
+          <t>rt safri mantap stm didu</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['hiitamku', 'seimbang', 'itu', 'tidak', 'harus', 'sama', 'yg', 'banyak', 'dapat', 'banyak', 'dan', 'yg', 'sedikit', 'maka', 'dapat', 'sedikit', 'itu', 'nama', 'nya', 'seimbang']</t>
+          <t>['rt', 'safri', 'mantap', 'stm', 'didu']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'safri', 'mantap', 'stm', 'didu']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['hiitamku', 'seimbang', 'nama', 'seimbang']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['hiitamku', 'imbang', 'nama', 'imbang']</t>
+          <t>['safri', 'mantap', 'stm', 'didu']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['safri', 'mantap', 'stm', 'didu']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15427</v>
+        <v>29824</v>
       </c>
       <c r="C78" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>itu statistik sensus terakhir yg dilakukan oleh negara lae</t>
+          <t>emang doyan agama wajah saja belum tentu nampak bekas wudhunya ujug jjug salah gurj agama hadeeeuh</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['itu', 'statistik', 'sensus', 'terakhir', 'yg', 'dilakukan', 'oleh', 'negara', 'lae']</t>
+          <t>['emang', 'doyan', 'agama', 'wajah', 'saja', 'belum', 'tentu', 'nampak', 'bekas', 'wudhunya', 'ujug', 'jjug', 'salah', 'gurj', 'agama', 'hadeeeuh']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['memang', 'suka', 'agama', 'wajah', 'saja', 'belum', 'tentu', 'menampak', 'bekas', 'wudhunya', 'ujug', 'jjug', 'salah', 'gurj', 'agama', 'hadeeeuh']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['statistik', 'sensus', 'negara', 'lae']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['statistik', 'sensus', 'negara', 'lae']</t>
+          <t>['suka', 'agama', 'wajah', 'menampak', 'bekas', 'wudhunya', 'ujug', 'jjug', 'salah', 'gurj', 'agama', 'hadeeeuh']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['suka', 'agama', 'wajah', 'tampak', 'bekas', 'wudhunya', 'ujug', 'jjug', 'salah', 'gurj', 'agama', 'hadeeeuh']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15428</v>
+        <v>29825</v>
       </c>
       <c r="C79" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>agama itu universal bung pki dan sekuler saja yg meminggirkan agama</t>
+          <t>peserta klb demokrat cuma diberi juta padahal dijanjikan juta saat dikonfirmasi ol</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['agama', 'itu', 'universal', 'bung', 'pki', 'dan', 'sekuler', 'saja', 'yg', 'meminggirkan', 'agama']</t>
+          <t>['peserta', 'klb', 'demokrat', 'cuma', 'diberi', 'juta', 'padahal', 'dijanjikan', 'juta', 'saat', 'dikonfirmasi', 'ol']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['peserta', 'klb', 'demokrat', 'cuma', 'diberi', 'juta', 'padahal', 'dijanjikan', 'juta', 'saat', 'dikonfirmasi', 'online']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['agama', 'universal', 'pki', 'sekuler', 'meminggirkan', 'agama']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['agama', 'universal', 'pki', 'sekuler', 'minggir', 'agama']</t>
+          <t>['peserta', 'klb', 'demokrat', 'juta', 'dijanjikan', 'juta', 'dikonfirmasi', 'online']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['serta', 'klb', 'demokrat', 'juta', 'janji', 'juta', 'konfirmasi', 'online']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15429</v>
+        <v>29826</v>
       </c>
       <c r="C80" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>penduduk indonesia ini atau juta adalah umat islam juta lagi adalah umat beragama yg lainnya yakni</t>
+          <t>daulay betul saya lah khatibnya alhamdulillah</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['penduduk', 'indonesia', 'ini', 'atau', 'juta', 'adalah', 'umat', 'islam', 'juta', 'lagi', 'adalah', 'umat', 'beragama', 'yg', 'lainnya', 'yakni']</t>
+          <t>['daulay', 'betul', 'saya', 'lah', 'khatibnya', 'alhamdulillah']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['daulay', 'betul', 'saya', 'lah', 'khatibnya', 'alhamdulillah']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['penduduk', 'indonesia', 'juta', 'umat', 'islam', 'juta', 'umat', 'beragama']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['duduk', 'indonesia', 'juta', 'umat', 'islam', 'juta', 'umat', 'agama']</t>
+          <t>['daulay', 'khatibnya', 'alhamdulillah']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['daulay', 'khatib', 'alhamdulillah']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15430</v>
+        <v>29827</v>
       </c>
       <c r="C81" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ngurus</t>
+          <t>pakai dibuka saat doa dan tdk ada orang di depan saya</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['ngurus']</t>
+          <t>['pakai', 'dibuka', 'saat', 'doa', 'dan', 'tdk', 'ada', 'orang', 'di', 'depan', 'saya']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['pakai', 'dibuka', 'saat', 'doa', 'dan', 'tidak', 'ada', 'orang', 'di', 'depan', 'saya']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['ngurus']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['ngurus']</t>
+          <t>['pakai', 'dibuka', 'doa', 'orang']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['pakai', 'buka', 'doa', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15431</v>
+        <v>29828</v>
       </c>
       <c r="C82" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>partai oposisi itu pks dan demokrat isinya para politikus semua kenapa yg kena upper cut dan jab haeres die</t>
+          <t>ziarah ke kubur dai besar habib hasan bin husein shibab lebih tahun yang lalu beliau datang ke ketapang kali</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['partai', 'oposisi', 'itu', 'pks', 'dan', 'demokrat', 'isinya', 'para', 'politikus', 'semua', 'kenapa', 'yg', 'kena', 'upper', 'cut', 'dan', 'jab', 'haeres', 'die']</t>
+          <t>['ziarah', 'ke', 'kubur', 'dai', 'besar', 'habib', 'hasan', 'bin', 'husein', 'shibab', 'lebih', 'tahun', 'yang', 'lalu', 'beliau', 'datang', 'ke', 'ketapang', 'kali']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['ziarah', 'ke', 'kubur', 'dai', 'besar', 'habib', 'hasan', 'bin', 'husein', 'shibab', 'lebih', 'tahun', 'yang', 'lalu', 'beliau', 'datang', 'ke', 'ketapang', 'kali']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['partai', 'oposisi', 'pks', 'demokrat', 'isinya', 'politikus', 'kena', 'upper', 'cut', 'jab', 'haeres', 'die']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['partai', 'oposisi', 'pks', 'demokrat', 'isi', 'politikus', 'kena', 'upper', 'cut', 'jab', 'haeres', 'die']</t>
+          <t>['ziarah', 'kubur', 'dai', 'habib', 'hasan', 'bin', 'husein', 'shibab', 'beliau', 'ketapang', 'kali']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['ziarah', 'kubur', 'dai', 'habib', 'hasan', 'bin', 'husein', 'shibab', 'beliau', 'ketapang', 'kali']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15432</v>
+        <v>29829</v>
       </c>
       <c r="C83" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">semoga tahun ini menjadi tonggak bagi damainya suasana hidup di nkri capek rasanya hiruk pikuk setiap hari </t>
+          <t>partai partai mesti rapatkan barisan dan kompak para kader jangan mau disuap atau diimingi imingi pks siap gerak</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['semoga', 'tahun', 'ini', 'menjadi', 'tonggak', 'bagi', 'damainya', 'suasana', 'hidup', 'di', 'nkri', 'capek', 'rasanya', 'hiruk', 'pikuk', 'setiap', 'hari']</t>
+          <t>['partai', 'partai', 'mesti', 'rapatkan', 'barisan', 'dan', 'kompak', 'para', 'kader', 'jangan', 'mau', 'disuap', 'atau', 'diimingi', 'imingi', 'pks', 'siap', 'gerak']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['partai', 'partai', 'mesti', 'rapatkan', 'barisan', 'dan', 'kompak', 'para', 'kader', 'jangan', 'mau', 'disuap', 'atau', 'diimingi', 'imingi', 'partai, keadilan, sejahtera', 'siap', 'gerak']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['semoga', 'tonggak', 'damainya', 'suasana', 'hidup', 'nkri', 'capek', 'hiruk', 'pikuk']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['moga', 'tonggak', 'damai', 'suasana', 'hidup', 'nkri', 'capek', 'hiruk', 'pikuk']</t>
+          <t>['partai', 'partai', 'mesti', 'rapatkan', 'barisan', 'kompak', 'kader', 'disuap', 'diimingi', 'imingi', 'partai, keadilan, sejahtera', 'gerak']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['partai', 'partai', 'mesti', 'rapat', 'baris', 'kompak', 'kader', 'suap', 'diimingi', 'imingi', 'partai adil sejahtera', 'gerak']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15433</v>
+        <v>29830</v>
       </c>
       <c r="C84" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>masih mau jadi buzzer fatwa mui mengharamkan pekerjaan buzzer termasuk menyuruh membantu dan memanfaatkannya</t>
+          <t>adul kepala staf kepresidenan digaji besar pakai uang rakyat bukan pakai uang istana atau penguasa mestinya dia</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['masih', 'mau', 'jadi', 'buzzer', 'fatwa', 'mui', 'mengharamkan', 'pekerjaan', 'buzzer', 'termasuk', 'menyuruh', 'membantu', 'dan', 'memanfaatkannya']</t>
+          <t>['adul', 'kepala', 'staf', 'kepresidenan', 'digaji', 'besar', 'pakai', 'uang', 'rakyat', 'bukan', 'pakai', 'uang', 'istana', 'atau', 'penguasa', 'mestinya', 'dia']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['adul', 'kepala', 'staf', 'kepresidenan', 'digaji', 'besar', 'pakai', 'uang', 'rakyat', 'bukan', 'pakai', 'uang', 'istana', 'atau', 'penguasa', 'mestinya', 'dia']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['buzzer', 'fatwa', 'mui', 'mengharamkan', 'pekerjaan', 'buzzer', 'menyuruh', 'membantu', 'memanfaatkannya']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['buzzer', 'fatwa', 'mui', 'haram', 'kerja', 'buzzer', 'suruh', 'bantu', 'manfaat']</t>
+          <t>['adul', 'kepala', 'staf', 'kepresidenan', 'digaji', 'pakai', 'uang', 'rakyat', 'pakai', 'uang', 'istana', 'penguasa', 'mestinya']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['adul', 'kepala', 'staf', 'presiden', 'gaji', 'pakai', 'uang', 'rakyat', 'pakai', 'uang', 'istana', 'kuasa', 'mesti']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15434</v>
+        <v>29831</v>
       </c>
       <c r="C85" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">kalau bukan islam ngapain mencampuri urusan aqidah umat islam kau pikir sorga itu kotor sekotor pikiran mu mana </t>
+          <t>aduljendral dgn mayor pangkatnya tinggian mana ran giranjelas tinggian jendral dul adulnah apa mungkin</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['kalau', 'bukan', 'islam', 'ngapain', 'mencampuri', 'urusan', 'aqidah', 'umat', 'islam', 'kau', 'pikir', 'sorga', 'itu', 'kotor', 'sekotor', 'pikiran', 'mu', 'mana']</t>
+          <t>['aduljendral', 'dgn', 'mayor', 'pangkatnya', 'tinggian', 'mana', 'ran', 'giranjelas', 'tinggian', 'jendral', 'dul', 'adulnah', 'apa', 'mungkin']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['aduljendral', 'dengan', 'mayor', 'pangkatnya', 'tinggian', 'mana', 'ran', 'giranjelas', 'tinggian', 'jenderal', 'dul', 'adulnah', 'apa', 'mungkin']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['islam', 'ngapain', 'mencampuri', 'urusan', 'aqidah', 'umat', 'islam', 'kau', 'pikir', 'sorga', 'kotor', 'sekotor', 'pikiran', 'mu']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['islam', 'ngapain', 'campur', 'urus', 'aqidah', 'umat', 'islam', 'kau', 'pikir', 'sorga', 'kotor', 'kotor', 'pikir', 'mu']</t>
+          <t>['aduljendral', 'mayor', 'pangkatnya', 'tinggian', 'ran', 'giranjelas', 'tinggian', 'jenderal', 'dul', 'adulnah']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['aduljendral', 'mayor', 'pangkat', 'tinggi', 'ran', 'giranjelas', 'tinggi', 'jenderal', 'dul', 'adulnah']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15435</v>
+        <v>29832</v>
       </c>
       <c r="C86" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>anda salah besar isteri akan menjadi ratu bidadari di sorga bidadari adalah para pelayan di sorga</t>
+          <t>mana data gagal panennya</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['anda', 'salah', 'besar', 'isteri', 'akan', 'menjadi', 'ratu', 'bidadari', 'di', 'sorga', 'bidadari', 'adalah', 'para', 'pelayan', 'di', 'sorga']</t>
+          <t>['mana', 'data', 'gagal', 'panennya']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['mana', 'data', 'gagal', 'panennya']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['salah', 'isteri', 'ratu', 'bidadari', 'sorga', 'bidadari', 'pelayan', 'sorga']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['salah', 'isteri', 'ratu', 'bidadari', 'sorga', 'bidadari', 'layan', 'sorga']</t>
+          <t>['data', 'gagal', 'panennya']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['data', 'gagal', 'panen']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15436</v>
+        <v>29833</v>
       </c>
       <c r="C87" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>orang banten</t>
+          <t>menurut kepala bulog mereka hanya andil dalam serapan beras rakyat sekarang sedang panen raya padi rakyat han</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['orang', 'banten']</t>
+          <t>['menurut', 'kepala', 'bulog', 'mereka', 'hanya', 'andil', 'dalam', 'serapan', 'beras', 'rakyat', 'sekarang', 'sedang', 'panen', 'raya', 'padi', 'rakyat', 'han']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['menurut', 'kepala', 'bulog', 'mereka', 'hanya', 'andil', 'dalam', 'serapan', 'beras', 'rakyat', 'sekarang', 'sedang', 'panen', 'raya', 'padi', 'rakyat', 'han']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['orang', 'banten']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['orang', 'banten']</t>
+          <t>['kepala', 'bulog', 'andil', 'serapan', 'beras', 'rakyat', 'panen', 'raya', 'padi', 'rakyat', 'han']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['kepala', 'bulog', 'andil', 'serap', 'beras', 'rakyat', 'panen', 'raya', 'padi', 'rakyat', 'han']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15437</v>
+        <v>29834</v>
       </c>
       <c r="C88" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>alun lai</t>
+          <t>padi petani cuma dihargai rp dul otakmu pakai</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['alun', 'lai']</t>
+          <t>['padi', 'petani', 'cuma', 'dihargai', 'rp', 'dul', 'otakmu', 'pakai']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['padi', 'petani', 'cuma', 'dihargai', 'rupiah', 'dul', 'otakmu', 'pakai']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['alun', 'lai']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['alun', 'lai']</t>
+          <t>['padi', 'petani', 'dihargai', 'rupiah', 'dul', 'otakmu', 'pakai']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['padi', 'tani', 'harga', 'rupiah', 'dul', 'otak', 'pakai']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15438</v>
+        <v>29835</v>
       </c>
       <c r="C89" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>alhamdulillah sudah jadi terbiasa setelah tahun</t>
+          <t>untuk kepentingan anak cucumu juga</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'sudah', 'jadi', 'terbiasa', 'setelah', 'tahun']</t>
+          <t>['untuk', 'kepentingan', 'anak', 'cucumu', 'juga']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['untuk', 'kepentingan', 'anak', 'cucumu', 'juga']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'terbiasa']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'biasa']</t>
+          <t>['kepentingan', 'anak', 'cucumu']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['penting', 'anak', 'cucu']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15439</v>
+        <v>29836</v>
       </c>
       <c r="C90" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>insyaallah</t>
+          <t>saat petani siap siap panen raya dalam bulan depan pemerintah sepakat akan impor satu juta ton beras tahun in</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['insyaallah']</t>
+          <t>['saat', 'petani', 'siap', 'siap', 'panen', 'raya', 'dalam', 'bulan', 'depan', 'pemerintah', 'sepakat', 'akan', 'impor', 'satu', 'juta', 'ton', 'beras', 'tahun', 'in']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['saat', 'petani', 'siap', 'siap', 'panen', 'raya', 'dalam', 'bulan', 'depan', 'pemerintah', 'sepakat', 'akan', 'impor', 'satu', 'juta', 'ton', 'beras', 'tahun', 'in']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['insyaallah']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['insyaallah']</t>
+          <t>['petani', 'panen', 'raya', 'pemerintah', 'sepakat', 'impor', 'juta', 'ton', 'beras', 'in']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['tani', 'panen', 'raya', 'perintah', 'sepakat', 'impor', 'juta', 'ton', 'beras', 'in']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15440</v>
+        <v>29837</v>
       </c>
       <c r="C91" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>di padang diberi seorang shahabat kue skipy jadi teringat masa awal menikah saya dan isteri membuat dan saya menj</t>
+          <t>kakak pembina terasa disinggung ya</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['di', 'padang', 'diberi', 'seorang', 'shahabat', 'kue', 'skipy', 'jadi', 'teringat', 'masa', 'awal', 'menikah', 'saya', 'dan', 'isteri', 'membuat', 'dan', 'saya', 'menj']</t>
+          <t>['kakak', 'pembina', 'terasa', 'disinggung', 'ya']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['kakak', 'pembina', 'terasa', 'disinggung', 'ya']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['padang', 'shahabat', 'kue', 'skipy', 'menikah', 'isteri', 'menj']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['padang', 'shahabat', 'kue', 'skipy', 'meni', 'isteri', 'menj']</t>
+          <t>['kakak', 'pembina', 'disinggung']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['kakak', 'bina', 'singgung']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15441</v>
+        <v>29838</v>
       </c>
       <c r="C92" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>justru rame rame direport dong</t>
+          <t>bela kakak pembina nih ye</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['justru', 'rame', 'rame', 'direport', 'dong']</t>
+          <t>['bela', 'kakak', 'pembina', 'nih', 'ye']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['bela', 'kakak', 'pembina', 'nih', 'iya']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['rame', 'rame', 'direport']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['rame', 'rame', 'direport']</t>
+          <t>['bela', 'kakak', 'pembina', 'iya']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['bela', 'kakak', 'bina', 'iya']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15442</v>
+        <v>29839</v>
       </c>
       <c r="C93" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>marilah mulai gerakan rekonsiliasi para tokoh di pemerintahan duduk bersama tokoh di luar pemerintahan bicarakan</t>
+          <t>akan badak jadi idola di akhir zaman ini silakan baca puisi di bawah</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['marilah', 'mulai', 'gerakan', 'rekonsiliasi', 'para', 'tokoh', 'di', 'pemerintahan', 'duduk', 'bersama', 'tokoh', 'di', 'luar', 'pemerintahan', 'bicarakan']</t>
+          <t>['akan', 'badak', 'jadi', 'idola', 'di', 'akhir', 'zaman', 'ini', 'silakan', 'baca', 'puisi', 'di', 'bawah']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['akan', 'badak', 'jadi', 'idola', 'di', 'akhir', 'zaman', 'ini', 'silakan', 'baca', 'puisi', 'di', 'bawah']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['marilah', 'gerakan', 'rekonsiliasi', 'tokoh', 'pemerintahan', 'duduk', 'tokoh', 'pemerintahan', 'bicarakan']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['mari', 'gera', 'rekonsiliasi', 'tokoh', 'perintah', 'duduk', 'tokoh', 'perintah', 'bicara']</t>
+          <t>['badak', 'idola', 'zaman', 'silakan', 'baca', 'puisi']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['badak', 'idola', 'zaman', 'sila', 'baca', 'puisi']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15443</v>
+        <v>29840</v>
       </c>
       <c r="C94" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">setelah fpi berhasil distigma radikal sekelompok orqng mulai menyerang prof dien syamsuddin tokoh muhammadiyah </t>
+          <t>setelah partai demokrat nantinya sukses dibajak akanlah uu tentang calon presiden boleh priode mulus diluncurk</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['setelah', 'fpi', 'berhasil', 'distigma', 'radikal', 'sekelompok', 'orqng', 'mulai', 'menyerang', 'prof', 'dien', 'syamsuddin', 'tokoh', 'muhammadiyah']</t>
+          <t>['setelah', 'partai', 'demokrat', 'nantinya', 'sukses', 'dibajak', 'akanlah', 'uu', 'tentang', 'calon', 'presiden', 'boleh', 'priode', 'mulus', 'diluncurk']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['setelah', 'partai', 'demokrat', 'nantinya', 'sukses', 'dibajak', 'akanlah', 'undang, undang', 'tentang', 'calon', 'presiden', 'boleh', 'periode', 'mulus', 'diluncurk']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['fpi', 'berhasil', 'distigma', 'radikal', 'sekelompok', 'orqng', 'menyerang', 'prof', 'dien', 'syamsuddin', 'tokoh', 'muhammadiyah']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['fpi', 'hasil', 'stigma', 'radikal', 'kelompok', 'orqng', 'serang', 'prof', 'dien', 'syamsuddin', 'tokoh', 'muhammadiyah']</t>
+          <t>['partai', 'demokrat', 'sukses', 'dibajak', 'akanlah', 'undang, undang', 'calon', 'presiden', 'periode', 'mulus', 'diluncurk']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['partai', 'demokrat', 'sukses', 'bajak', 'akan', 'undang undang', 'calon', 'presiden', 'periode', 'mulus', 'diluncurk']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15444</v>
+        <v>29841</v>
       </c>
       <c r="C95" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>alhamdulillah saya bangga punya bapak dan ibu kakek dan nenek alhamdulillah kami sekeluarga tdk termasuk orang yg</t>
+          <t>bukan gugur heran saja kok nggak ditangkap kayak hrs kan kerumunan lagi kayaknya klb tdk sah menurut</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'saya', 'bangga', 'punya', 'bapak', 'dan', 'ibu', 'kakek', 'dan', 'nenek', 'alhamdulillah', 'kami', 'sekeluarga', 'tdk', 'termasuk', 'orang', 'yg']</t>
+          <t>['bukan', 'gugur', 'heran', 'saja', 'kok', 'nggak', 'ditangkap', 'kayak', 'hrs', 'kan', 'kerumunan', 'lagi', 'kayaknya', 'klb', 'tdk', 'sah', 'menurut']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['bukan', 'gugur', 'heran', 'saja', 'kok', 'enggak', 'ditangkap', 'kayak', 'harus', 'kan', 'kerumunan', 'lagi', 'kayaknya', 'klb', 'tidak', 'sah', 'menurut']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'bangga', 'kakek', 'nenek', 'alhamdulillah', 'sekeluarga', 'orang']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'bangga', 'kakek', 'nenek', 'alhamdulillah', 'keluarga', 'orang']</t>
+          <t>['gugur', 'heran', 'ditangkap', 'kayak', 'kerumunan', 'kayaknya', 'klb', 'sah']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['gugur', 'heran', 'tangkap', 'kayak', 'kerumun', 'kayak', 'klb', 'sah']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15445</v>
+        <v>29842</v>
       </c>
       <c r="C96" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ada banyak video saya yg menjelaskan ibu saya memang cina enak saja bilang saya keceplosan dalam islam haram</t>
+          <t>emang ada izin keramaian hem</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['ada', 'banyak', 'video', 'saya', 'yg', 'menjelaskan', 'ibu', 'saya', 'memang', 'cina', 'enak', 'saja', 'bilang', 'saya', 'keceplosan', 'dalam', 'islam', 'haram']</t>
+          <t>['emang', 'ada', 'izin', 'keramaian', 'hem']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['memang', 'ada', 'izin', 'keramaian', 'hem']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['video', 'cina', 'enak', 'keceplosan', 'islam', 'haram']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['video', 'cina', 'enak', 'ceplos', 'islam', 'haram']</t>
+          <t>['izin', 'keramaian', 'hem']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['izin', 'ramai', 'hem']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15446</v>
+        <v>29843</v>
       </c>
       <c r="C97" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>apa gunanya akun ini mau menfitnah saja saya ini memamg anak cina dari pihak ibu saya sedangkan dari pihak bapak</t>
+          <t xml:space="preserve">konflik pkb era bu mega keduanya orang dlm partai matori dan gus dur pkb era sby keduanya org dlm muhaimin dgn </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['apa', 'gunanya', 'akun', 'ini', 'mau', 'menfitnah', 'saja', 'saya', 'ini', 'memamg', 'anak', 'cina', 'dari', 'pihak', 'ibu', 'saya', 'sedangkan', 'dari', 'pihak', 'bapak']</t>
+          <t>['konflik', 'pkb', 'era', 'bu', 'mega', 'keduanya', 'orang', 'dlm', 'partai', 'matori', 'dan', 'gus', 'dur', 'pkb', 'era', 'sby', 'keduanya', 'org', 'dlm', 'muhaimin', 'dgn']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
+          <t>['konflik', 'partai, kebangkitan, bangsa', 'era', 'bu', 'mega', 'keduanya', 'orang', 'dalam', 'partai', 'matori', 'dan', 'gus', 'dur', 'partai, kebangkitan, bangsa', 'era', 'susilo, bambang, yudhoyono', 'keduanya', 'orang', 'dalam', 'muhaimin', 'dengan']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['gunanya', 'akun', 'menfitnah', 'memamg', 'anak', 'cina']</t>
+          <t>&lt;FreqDist with 16 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['guna', 'akun', 'menfitnah', 'memamg', 'anak', 'cina']</t>
+          <t>['konflik', 'partai, kebangkitan, bangsa', 'era', 'bu', 'mega', 'orang', 'partai', 'matori', 'gus', 'dur', 'partai, kebangkitan, bangsa', 'era', 'susilo, bambang, yudhoyono', 'orang', 'muhaimin']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['konflik', 'partai bangkit bangsa', 'era', 'bu', 'mega', 'orang', 'partai', 'matori', 'gus', 'dur', 'partai bangkit bangsa', 'era', 'susilo bambang yudhoyono', 'orang', 'muhaimin']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15447</v>
+        <v>29844</v>
       </c>
       <c r="C98" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>kiong hikiong hi kamsia la</t>
+          <t>adulran lu tahu apa itu klb girankongres luar biasa dul adulsalah ran itu dulu sekarang klb itu ko</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['kiong', 'hikiong', 'hi', 'kamsia', 'la']</t>
+          <t>['adulran', 'lu', 'tahu', 'apa', 'itu', 'klb', 'girankongres', 'luar', 'biasa', 'dul', 'adulsalah', 'ran', 'itu', 'dulu', 'sekarang', 'klb', 'itu', 'ko']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['adulran', 'kamu', 'tahu', 'apa', 'itu', 'klb', 'girankongres', 'luar', 'biasa', 'dul', 'adulsalah', 'ran', 'itu', 'dulu', 'sekarang', 'klb', 'itu', 'kok']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['kiong', 'hikiong', 'hi', 'kamsia', 'la']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['kiong', 'hikiong', 'hi', 'kamsia', 'la']</t>
+          <t>['adulran', 'klb', 'girankongres', 'dul', 'adulsalah', 'ran', 'klb']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['adulran', 'klb', 'girankongres', 'dul', 'adulsalah', 'ran', 'klb']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15448</v>
+        <v>29845</v>
       </c>
       <c r="C99" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>bodoh memang gratis barang buatan negara china tdk bisa kamu bedakan dgn budaya cina</t>
+          <t>kemenkumham tetap verifikasi hasil klb partai demokrat di sumut kemenkumham tetap verifik</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['bodoh', 'memang', 'gratis', 'barang', 'buatan', 'negara', 'china', 'tdk', 'bisa', 'kamu', 'bedakan', 'dgn', 'budaya', 'cina']</t>
+          <t>['kemenkumham', 'tetap', 'verifikasi', 'hasil', 'klb', 'partai', 'demokrat', 'di', 'sumut', 'kemenkumham', 'tetap', 'verifik']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kemenkumham', 'tetap', 'verifikasi', 'hasil', 'klb', 'partai', 'demokrat', 'di', 'sumatra, utara', 'kemenkumham', 'tetap', 'verifik']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['bodoh', 'gratis', 'barang', 'buatan', 'negara', 'china', 'bedakan', 'budaya', 'cina']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['bodoh', 'gratis', 'barang', 'buat', 'negara', 'china', 'beda', 'budaya', 'cina']</t>
+          <t>['kemenkumham', 'verifikasi', 'hasil', 'klb', 'partai', 'demokrat', 'sumatra, utara', 'kemenkumham', 'verifik']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['kemenkumham', 'verifikasi', 'hasil', 'klb', 'partai', 'demokrat', 'sumatra utara', 'kemenkumham', 'verifik']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15449</v>
+        <v>29846</v>
       </c>
       <c r="C100" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>mustofa kachong kasihan belajar lagi berapa wali dlm islam saudara sewali ya</t>
+          <t>makanya baca twit pakai akal dan iq biar paham kemarin membantah tapi skrg terjad dan terbukti sampai di sini paham</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['mustofa', 'kachong', 'kasihan', 'belajar', 'lagi', 'berapa', 'wali', 'dlm', 'islam', 'saudara', 'sewali', 'ya']</t>
+          <t>['makanya', 'baca', 'twit', 'pakai', 'akal', 'dan', 'iq', 'biar', 'paham', 'kemarin', 'membantah', 'tapi', 'skrg', 'terjad', 'dan', 'terbukti', 'sampai', 'di', 'sini', 'paham']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['makanya', 'baca', 'twit', 'pakai', 'akal', 'dan', 'intelligence, quotient', 'biar', 'paham', 'kemarin', 'membantah', 'tapi', 'sekarang', 'terjad', 'dan', 'terbukti', 'sampai', 'di', 'sini', 'paham']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['mustofa', 'kachong', 'kasihan', 'belajar', 'wali', 'dlm', 'islam', 'saudara', 'sewali']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['mustofa', 'kachong', 'kasihan', 'ajar', 'wali', 'dlm', 'islam', 'saudara', 'sewal']</t>
+          <t>['baca', 'twit', 'pakai', 'akal', 'intelligence, quotient', 'paham', 'kemarin', 'membantah', 'terjad', 'terbukti', 'paham']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['baca', 'twit', 'pakai', 'akal', 'intelligence quotient', 'paham', 'kemarin', 'ban', 'terjad', 'bukti', 'paham']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4535,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15450</v>
+        <v>29847</v>
       </c>
       <c r="C101" t="n">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>hary shubuh tadi masjid al hijrah jalan delima belimbiang</t>
+          <t>kasihan pak sby semoga ini jadi pelajaran bagi para pejabat negara agar jangan mengangkat orang yang berjiwa br</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['hary', 'shubuh', 'tadi', 'masjid', 'al', 'hijrah', 'jalan', 'delima', 'belimbiang']</t>
+          <t>['kasihan', 'pak', 'sby', 'semoga', 'ini', 'jadi', 'pelajaran', 'bagi', 'para', 'pejabat', 'negara', 'agar', 'jangan', 'mengangkat', 'orang', 'yang', 'berjiwa', 'br']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kasihan', 'pak', 'susilo, bambang, yudhoyono', 'semoga', 'ini', 'jadi', 'pelajaran', 'bagi', 'para', 'pejabat', 'negara', 'agar', 'jangan', 'mengangkat', 'orang', 'yang', 'berjiwa', 'baru']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['hary', 'shubuh', 'masjid', 'al', 'hijrah', 'jalan', 'delima', 'belimbiang']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['hary', 'shubuh', 'masjid', 'al', 'hijrah', 'jalan', 'delima', 'belimbiang']</t>
+          <t>['kasihan', 'susilo, bambang, yudhoyono', 'semoga', 'pelajaran', 'pejabat', 'negara', 'mengangkat', 'orang', 'berjiwa']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['kasihan', 'susilo bambang yudhoyono', 'moga', 'ajar', 'jabat', 'negara', 'angkat', 'orang', 'jiwa']</t>
         </is>
       </c>
     </row>
